--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail0 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>2.457573000414895e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.626788834490828</v>
+        <v>1.584531247149618e-05</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.63365254740945</v>
+        <v>5.411958466299717e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.584531247149618e-05</v>
+        <v>-0.1075714688248156</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.411958466299717e-06</v>
+        <v>0.3003577388291696</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1075714688248156</v>
+        <v>0.1015442656978467</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3003577388291696</v>
+        <v>1.811350246608775</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1015442656978467</v>
+        <v>1.847606328983257</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.775969588732232</v>
+        <v>4.217696649825932</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.847606328983257</v>
+        <v>4.581634377773397e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.217696649825932</v>
+        <v>88271116.2119474</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.581634377773397e-15</v>
+        <v>1.32882471312961e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>88271116.2119474</v>
+        <v>35.69913273276949</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.32882471312961e-06</v>
+        <v>0.0001289867446834039</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>35.69913273276949</v>
+        <v>9.223381274393953</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001289867446834039</v>
+        <v>1.185724581155161</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.223381274393953</v>
+        <v>0.01097300067525135</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.185724581155161</v>
+        <v>3.099554251865749</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01097300067525135</v>
+        <v>0.9576891072416499</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.099554251865749</v>
+        <v>1.625866153557201</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9576891072416499</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.625866153557201</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2943028719111051</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>1.825508592540052e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.577360752910265</v>
+        <v>1.174291389757388e-05</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13.28300633031326</v>
+        <v>5.183866454583119e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.174291389757388e-05</v>
+        <v>-0.1073225531668072</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.183866454583119e-06</v>
+        <v>0.2952944203866437</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1073225531668072</v>
+        <v>0.09847987830615447</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2952944203866437</v>
+        <v>1.831267749572566</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09847987830615447</v>
+        <v>1.863592840192862</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.807260591069178</v>
+        <v>4.352855756149442</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.863592840192862</v>
+        <v>4.301526061205372e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.352855756149442</v>
+        <v>95601765.17104785</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.301526061205372e-15</v>
+        <v>1.23356763186803e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>95601765.17104785</v>
+        <v>39.31464700421618</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.23356763186803e-06</v>
+        <v>0.0001222014161799408</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>39.31464700421618</v>
+        <v>8.656520133015539</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001222014161799408</v>
+        <v>1.249914562084467</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.656520133015539</v>
+        <v>0.009157204769312187</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.249914562084467</v>
+        <v>3.002674245269266</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009157204769312187</v>
+        <v>0.9583302113757549</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.002674245269266</v>
+        <v>1.616163398158095</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9583302113757549</v>
+        <v>23</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.616163398158095</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.273308297881194</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>1.363948342450994e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.513049030328165</v>
+        <v>8.756999287474197e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12.85431271615683</v>
+        <v>5.014338350250807e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.756999287474197e-06</v>
+        <v>-0.107114007806081</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.014338350250807e-06</v>
+        <v>0.2895276120960362</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.107114007806081</v>
+        <v>0.09507334903302837</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2895276120960362</v>
+        <v>1.840831209510344</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09507334903302837</v>
+        <v>2.015320023729611</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.818466362133717</v>
+        <v>4.602261037536834</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.015320023729611</v>
+        <v>3.847942859007336e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.602261037536834</v>
+        <v>108354748.9042547</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.847942859007336e-15</v>
+        <v>1.090731397402027e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>108354748.9042547</v>
+        <v>45.17774131747886</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.090731397402027e-06</v>
+        <v>0.0001217910212013807</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45.17774131747886</v>
+        <v>7.978623978720771</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001217910212013807</v>
+        <v>1.308882219040767</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.978623978720771</v>
+        <v>0.007753026488008531</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.308882219040767</v>
+        <v>3.04774424138865</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007753026488008531</v>
+        <v>0.9586887328140673</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.04774424138865</v>
+        <v>1.595121831044388</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9586887328140673</v>
+        <v>23</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.595121831044388</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2560980268925293</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>1.026245048675637e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.423930843807427</v>
+        <v>6.576798693141701e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.29566855806066</v>
+        <v>4.887501850001394e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.576798693141701e-06</v>
+        <v>-0.1069153678575161</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.887501850001394e-06</v>
+        <v>0.2828527436928953</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1069153678575161</v>
+        <v>0.09122235811262261</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2828527436928953</v>
+        <v>1.845955811374809</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09122235811262261</v>
+        <v>1.906702305338793</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.824229999729635</v>
+        <v>4.652905769094768</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.906702305338793</v>
+        <v>3.764632573330106e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.652905769094768</v>
+        <v>107449574.2287676</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.764632573330106e-15</v>
+        <v>1.101988572754191e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>107449574.2287676</v>
+        <v>43.46423033040008</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.101988572754191e-06</v>
+        <v>0.0001231757517033339</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>43.46423033040008</v>
+        <v>7.025852336444992</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001231757517033339</v>
+        <v>1.403597676221541</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.025852336444992</v>
+        <v>0.006080275490800282</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.403597676221541</v>
+        <v>3.160634247255719</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006080275490800282</v>
+        <v>0.9582522334848835</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.160634247255719</v>
+        <v>1.599237366309754</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9582522334848835</v>
+        <v>23</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.599237366309754</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2414482997460285</v>
       </c>
     </row>
@@ -5145,72 +5109,66 @@
         <v>7.78990788844199e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.294359683147929</v>
+        <v>4.973516400801281e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>11.51766961732776</v>
+        <v>4.791921532327944e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.973516400801281e-06</v>
+        <v>-0.1065112657439003</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.791921532327944e-06</v>
+        <v>0.2742977486536309</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1065112657439003</v>
+        <v>0.08638152102445221</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2742977486536309</v>
+        <v>1.849960505422737</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08638152102445221</v>
+        <v>1.82884612457472</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.827671384963447</v>
+        <v>4.585468426337036</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.82884612457472</v>
+        <v>3.876177848536554e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.585468426337036</v>
+        <v>103459160.8218937</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.876177848536554e-15</v>
+        <v>1.147542190716588e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>103459160.8218937</v>
+        <v>41.48982453989594</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.147542190716588e-06</v>
+        <v>0.0001329417966204667</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>41.48982453989594</v>
+        <v>7.43601745453497</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001329417966204667</v>
+        <v>1.499800750866735</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.43601745453497</v>
+        <v>0.007350930974327668</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.499800750866735</v>
+        <v>3.149885658513638</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007350930974327668</v>
+        <v>0.9587627482730073</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.149885658513638</v>
+        <v>1.632883968691781</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9587627482730073</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.632883968691781</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2335781619672445</v>
       </c>
     </row>
@@ -5225,72 +5183,66 @@
         <v>5.985836682427768e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.109689211685681</v>
+        <v>3.78673895665584e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>10.46415884866452</v>
+        <v>4.71941382035842e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.78673895665584e-06</v>
+        <v>-0.1055330414081615</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.71941382035842e-06</v>
+        <v>0.2625780824928552</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1055330414081615</v>
+        <v>0.0798980781144893</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2625780824928552</v>
+        <v>1.850658828548044</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0798980781144893</v>
+        <v>1.800463764406596</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.826227418321952</v>
+        <v>4.523030607800399</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.800463764406596</v>
+        <v>3.98393328238138e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.523030607800399</v>
+        <v>99771866.01137491</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.98393328238138e-15</v>
+        <v>1.187213225872111e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>99771866.01137491</v>
+        <v>39.65776605006148</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.187213225872111e-06</v>
+        <v>0.0001325364547349206</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>39.65776605006148</v>
+        <v>9.173197012293263</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001325364547349206</v>
+        <v>1.198978609629619</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.173197012293263</v>
+        <v>0.01115261708038068</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.198978609629619</v>
+        <v>3.036678905975001</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01115261708038068</v>
+        <v>0.9585909287716712</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.036678905975001</v>
+        <v>1.620571336572763</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9585909287716712</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.620571336572763</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2426314889211517</v>
       </c>
     </row>
@@ -5305,72 +5257,66 @@
         <v>4.676299202446624e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.858176162885714</v>
+        <v>2.911129085598191e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9.129384974641503</v>
+        <v>4.663972482475807e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.911129085598191e-06</v>
+        <v>-0.1038424400280554</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.663972482475807e-06</v>
+        <v>0.2476859871796637</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1038424400280554</v>
+        <v>0.07196715444430496</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2476859871796637</v>
+        <v>1.840557761259055</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07196715444430496</v>
+        <v>1.801857498439227</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.819551964140274</v>
+        <v>4.550000193917294</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.801857498439227</v>
+        <v>3.936844669923834e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.550000193917294</v>
+        <v>99892173.045816</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.936844669923834e-15</v>
+        <v>1.179388347889564e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>99892173.045816</v>
+        <v>39.28359287759081</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.179388347889564e-06</v>
+        <v>0.0001263303612916645</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>39.28359287759081</v>
+        <v>9.382906520135622</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001263303612916645</v>
+        <v>1.150317904781828</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.382906520135622</v>
+        <v>0.01112199043667198</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.150317904781828</v>
+        <v>2.933941750117497</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01112199043667198</v>
+        <v>0.9590955629146432</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.933941750117497</v>
+        <v>1.588930407601901</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9590955629146432</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.588930407601901</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2458586950426188</v>
       </c>
     </row>
@@ -5385,72 +5331,66 @@
         <v>3.729355672312714e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.529552693738062</v>
+        <v>2.268002009794719e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.517686134810564</v>
+        <v>4.621101222754446e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.268002009794719e-06</v>
+        <v>-0.1013369157073024</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.621101222754446e-06</v>
+        <v>0.2303736798843911</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.1013369157073024</v>
+        <v>0.06320139472717351</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2303736798843911</v>
+        <v>1.837817503034668</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06320139472717351</v>
+        <v>1.845347789599259</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.816371939983546</v>
+        <v>4.520403147743821</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.845347789599259</v>
+        <v>3.988565907990595e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.520403147743821</v>
+        <v>98260292.9633653</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.988565907990595e-15</v>
+        <v>1.199346598916579e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>98260292.9633653</v>
+        <v>38.50994356075596</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.199346598916579e-06</v>
+        <v>0.0001211989915769914</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>38.50994356075596</v>
+        <v>7.895294981065868</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001211989915769914</v>
+        <v>1.231365796305751</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.895294981065868</v>
+        <v>0.00755502189923409</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.231365796305751</v>
+        <v>3.095866437443391</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00755502189923409</v>
+        <v>0.9595176744216288</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.095866437443391</v>
+        <v>1.619269892876754</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9595176744216288</v>
+        <v>10</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.619269892876754</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2358531943723333</v>
       </c>
     </row>
@@ -5465,72 +5405,66 @@
         <v>3.047248860487367e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.124875709297561</v>
+        <v>1.79178680326797e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5.670612593557566</v>
+        <v>4.587554806909685e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.79178680326797e-06</v>
+        <v>-0.09752851293851707</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.587554806909685e-06</v>
+        <v>0.2104482168645481</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.09752851293851707</v>
+        <v>0.05368328973629285</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2104482168645481</v>
+        <v>1.828088742479062</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05368328973629285</v>
+        <v>1.806502128944397</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.800927584013825</v>
+        <v>4.431190628177618</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.806502128944397</v>
+        <v>4.15078504110963e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.431190628177618</v>
+        <v>93968182.1743671</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.15078504110963e-15</v>
+        <v>1.250626506637702e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>93968182.1743671</v>
+        <v>36.65151186191225</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.250626506637702e-06</v>
+        <v>0.0001224140766455882</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>36.65151186191225</v>
+        <v>7.245276773724208</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001224140766455882</v>
+        <v>1.33419357776695</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.245276773724208</v>
+        <v>0.006426008888544599</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.33419357776695</v>
+        <v>3.135742728669095</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006426008888544599</v>
+        <v>0.9579505913936488</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.135742728669095</v>
+        <v>1.622899306661899</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579505913936488</v>
+        <v>10</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.622899306661899</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2375240366273492</v>
       </c>
     </row>
@@ -5545,72 +5479,66 @@
         <v>2.560810169107697e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.676882301060893</v>
+        <v>1.434169490978661e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3.775314772378819</v>
+        <v>4.561051831737131e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.434169490978661e-06</v>
+        <v>-0.09230556852806925</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.561051831737131e-06</v>
+        <v>0.1867599281531926</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.09230556852806925</v>
+        <v>0.04330623622195934</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1867599281531926</v>
+        <v>1.794794817869135</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04330623622195934</v>
+        <v>1.770301576634306</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.748821694802529</v>
+        <v>4.004980062700752</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.770301576634306</v>
+        <v>5.081248014774451e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.004980062700752</v>
+        <v>78921931.11853141</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.081248014774451e-15</v>
+        <v>1.4773710083884e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>78921931.11853141</v>
+        <v>31.64942322800646</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.4773710083884e-06</v>
+        <v>0.0001286662449854211</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>31.64942322800646</v>
+        <v>7.146270061100808</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001286662449854211</v>
+        <v>1.484862539066317</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.146270061100808</v>
+        <v>0.006570879082908912</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.484862539066317</v>
+        <v>3.165865222686056</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006570879082908912</v>
+        <v>0.9588886471773845</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.165865222686056</v>
+        <v>1.65126161489798</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9588886471773845</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.65126161489798</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.245241494640703</v>
       </c>
     </row>
@@ -5625,72 +5553,66 @@
         <v>2.220132886224414e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.240540229793878</v>
+        <v>1.166434132905096e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.090242260384795</v>
+        <v>4.539732838028169e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.166434132905096e-06</v>
+        <v>-0.08687086845271488</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.539732838028169e-06</v>
+        <v>0.1604547653671629</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.08687086845271488</v>
+        <v>0.03322345476543568</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1604547653671629</v>
+        <v>1.78692432082432</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03322345476543568</v>
+        <v>1.746632858246996</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.73995240759833</v>
+        <v>3.683384756234272</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.746632858246996</v>
+        <v>6.007267030465746e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.683384756234272</v>
+        <v>67689809.08016315</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.007267030465746e-15</v>
+        <v>1.718843413432844e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>67689809.08016315</v>
+        <v>27.52475840125573</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.718843413432844e-06</v>
+        <v>0.000143521469823363</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>27.52475840125573</v>
+        <v>9.219405015168734</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000143521469823363</v>
+        <v>1.489303054156803</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.219405015168734</v>
+        <v>0.01219895591742196</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.489303054156803</v>
+        <v>3.142195956943781</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01219895591742196</v>
+        <v>0.9600919426530431</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.142195956943781</v>
+        <v>1.681468029140439</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9600919426530431</v>
+        <v>11</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.681468029140439</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2770590940342747</v>
       </c>
     </row>
@@ -5705,72 +5627,66 @@
         <v>1.986123032551533e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8627902212775361</v>
+        <v>9.734466492558641e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.7696095559497329</v>
+        <v>4.522074253665778e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.734466492558641e-07</v>
+        <v>-0.08173794605484608</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.522074253665778e-06</v>
+        <v>0.1349108318931935</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.08173794605484608</v>
+        <v>0.02483507781715181</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1349108318931935</v>
+        <v>1.781260876493696</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02483507781715181</v>
+        <v>1.711026923428357</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.731938808947153</v>
+        <v>3.816699140250898</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.711026923428357</v>
+        <v>5.59493771315861e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.816699140250898</v>
+        <v>73034742.10472175</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.59493771315861e-15</v>
+        <v>1.592760265748529e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>73034742.10472175</v>
+        <v>29.84380929373306</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.592760265748529e-06</v>
+        <v>0.0001359668425750472</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>29.84380929373306</v>
+        <v>12.03272736488912</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001359668425750472</v>
+        <v>1.202980331971795</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.03272736488912</v>
+        <v>0.01968616703750324</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.202980331971795</v>
+        <v>3.105570913094095</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01968616703750324</v>
+        <v>0.9602626794361816</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.105570913094095</v>
+        <v>1.713695228746623</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9602626794361816</v>
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.713695228746623</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3105599053118581</v>
       </c>
     </row>
@@ -5785,72 +5701,66 @@
         <v>1.827586268504351e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5654615120980226</v>
+        <v>8.449309404273952e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.1766201881730134</v>
+        <v>4.506979172427612e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.449309404273952e-07</v>
+        <v>-0.07709544567001239</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.506979172427612e-06</v>
+        <v>0.1131143248128493</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07709544567001239</v>
+        <v>0.01870685594753194</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1131143248128493</v>
+        <v>1.821667343104287</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01870685594753194</v>
+        <v>1.936633472298277</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.78473927883495</v>
+        <v>3.720039137613732</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.936633472298277</v>
+        <v>5.255915284556586e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.720039137613732</v>
+        <v>78112257.32499868</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.255915284556586e-15</v>
+        <v>1.500390369308397e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>78112257.32499868</v>
+        <v>32.06909716322797</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.500390369308397e-06</v>
+        <v>0.0001115216356292382</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>32.06909716322797</v>
+        <v>9.250707811008626</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001115216356292382</v>
+        <v>1.326393905300482</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.250707811008626</v>
+        <v>0.0095435303248645</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.326393905300482</v>
+        <v>3.249494752039501</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0095435303248645</v>
+        <v>0.961032330231987</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.249494752039501</v>
+        <v>1.63381620711187</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.961032330231987</v>
+        <v>26</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.63381620711187</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2866635298671075</v>
       </c>
     </row>
@@ -5865,72 +5775,66 @@
         <v>1.722837496297102e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3527709384623934</v>
+        <v>7.4971574791268e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7949396491390375</v>
+        <v>4.493728750774288e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.4971574791268e-07</v>
+        <v>-0.0725630944051089</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.493728750774288e-06</v>
+        <v>0.09318199277903613</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0725630944051089</v>
+        <v>0.01392585712102145</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09318199277903613</v>
+        <v>1.83783474010208</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01392585712102145</v>
+        <v>1.778700512509227</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.806168276208126</v>
+        <v>4.080752020062519</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.778700512509227</v>
+        <v>3.87626674897634e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.080752020062519</v>
+        <v>103410342.2713689</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.87626674897634e-15</v>
+        <v>1.139395195889376e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>103410342.2713689</v>
+        <v>41.45162942576197</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.139395195889376e-06</v>
+        <v>0.0001084266224393835</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>41.45162942576197</v>
+        <v>7.48509293595787</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001084266224393835</v>
+        <v>1.231115387613873</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.48509293595787</v>
+        <v>0.006074776767771266</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.231115387613873</v>
+        <v>3.211059310755801</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006074776767771266</v>
+        <v>0.9615595610019423</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.211059310755801</v>
+        <v>1.623504147236768</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9615595610019423</v>
+        <v>32</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.623504147236768</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2798497074375416</v>
       </c>
     </row>
@@ -5945,72 +5849,66 @@
         <v>1.657777332135182e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2181314493813682</v>
+        <v>6.799905302673181e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.14333209482569</v>
+        <v>4.481847612051599e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.799905302673181e-07</v>
+        <v>-0.0683923189456878</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.481847612051599e-06</v>
+        <v>0.07609465215995349</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0683923189456878</v>
+        <v>0.01045368716036639</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07609465215995349</v>
+        <v>1.852456715750041</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01045368716036639</v>
+        <v>2.059005008619779</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.828616610876183</v>
+        <v>4.498257625670282</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.059005008619779</v>
+        <v>3.190108208849534e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.498257625670282</v>
+        <v>126294097.2086859</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.190108208849534e-15</v>
+        <v>9.365592642897289e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>126294097.2086859</v>
+        <v>50.88286073000732</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.365592642897289e-07</v>
+        <v>0.0001103719813761431</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>50.88286073000732</v>
+        <v>6.655948176567709</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001103719813761431</v>
+        <v>1.337834942059119</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.655948176567709</v>
+        <v>0.004889660461499579</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.337834942059119</v>
+        <v>3.280673599086758</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.004889660461499579</v>
+        <v>0.9622462781472806</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.280673599086758</v>
+        <v>1.615814701170782</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9622462781472806</v>
+        <v>53</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.615814701170782</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2744188254866951</v>
       </c>
     </row>
@@ -6025,72 +5923,66 @@
         <v>1.620748298222845e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1403575087614257</v>
+        <v>6.313856651643943e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.31066349978478</v>
+        <v>4.470945890881711e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.313856651643943e-07</v>
+        <v>-0.06494868421869293</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.470945890881711e-06</v>
+        <v>0.06393802182302644</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06494868421869293</v>
+        <v>0.008298258508053807</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06393802182302644</v>
+        <v>1.853330678785643</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008298258508053807</v>
+        <v>1.909116803597453</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.834877254682846</v>
+        <v>4.516688049148129</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.909116803597453</v>
+        <v>3.164126743008735e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.516688049148129</v>
+        <v>126703014.4106809</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.164126743008735e-15</v>
+        <v>9.32451345957223e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>126703014.4106809</v>
+        <v>50.79579550381464</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.32451345957223e-07</v>
+        <v>0.0001135025831702847</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>50.79579550381464</v>
+        <v>6.46860328749918</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001135025831702847</v>
+        <v>1.731412475539926</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.46860328749918</v>
+        <v>0.004749269120884817</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.731412475539926</v>
+        <v>3.350479580676339</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.004749269120884817</v>
+        <v>0.9619933483141008</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.350479580676339</v>
+        <v>1.58429522799072</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9619933483141008</v>
+        <v>48</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.58429522799072</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2804544703269358</v>
       </c>
     </row>
@@ -6105,72 +5997,66 @@
         <v>1.6023962416026e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.0969651599040523</v>
+        <v>6.000662464742234e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.374122920969338</v>
+        <v>4.460703643286346e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.000662464742234e-07</v>
+        <v>-0.06242798918215126</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.460703643286346e-06</v>
+        <v>0.0571980511493857</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06242798918215126</v>
+        <v>0.007164641454386384</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.0571980511493857</v>
+        <v>1.852796950329967</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.007164641454386384</v>
+        <v>1.880433514173186</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.831035574331509</v>
+        <v>4.504447088827026</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.880433514173186</v>
+        <v>3.181347314911645e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.504447088827026</v>
+        <v>124792712.7190952</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.181347314911645e-15</v>
+        <v>9.446253458435123e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>124792712.7190952</v>
+        <v>49.54382528304891</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>9.446253458435123e-07</v>
+        <v>0.0001152254832355528</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>49.54382528304891</v>
+        <v>8.558697427278027</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001152254832355528</v>
+        <v>1.489060537841885</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.558697427278027</v>
+        <v>0.008440416630449863</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.489060537841885</v>
+        <v>3.29269880177242</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008440416630449863</v>
+        <v>0.9625540310116699</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.29269880177242</v>
+        <v>1.55257243638112</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9625540310116699</v>
+        <v>48</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.55257243638112</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2960304900687404</v>
       </c>
     </row>
@@ -6185,72 +6071,66 @@
         <v>1.595843334362531e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.07259658944123894</v>
+        <v>5.79127022926472e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.383249355747227</v>
+        <v>4.450886767874864e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.79127022926472e-07</v>
+        <v>-0.06049222752245321</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.450886767874864e-06</v>
+        <v>0.05377138494355278</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06049222752245321</v>
+        <v>0.006548456849510903</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.05377138494355278</v>
+        <v>1.845785792674864</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.006548456849510903</v>
+        <v>1.85982584570968</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.825431845145235</v>
+        <v>4.467996659140788</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.85982584570968</v>
+        <v>3.233466642212823e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.467996659140788</v>
+        <v>121376660.8463966</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.233466642212823e-15</v>
+        <v>9.694792466567717e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>121376660.8463966</v>
+        <v>47.63638055982702</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>9.694792466567717e-07</v>
+        <v>0.0001095686131966687</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>47.63638055982702</v>
+        <v>9.271256283887801</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001095686131966687</v>
+        <v>1.212954171741888</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.271256283887801</v>
+        <v>0.009418100871608224</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.212954171741888</v>
+        <v>3.135981699425127</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009418100871608224</v>
+        <v>0.9640777814197815</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.135981699425127</v>
+        <v>1.608073261538462</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9640777814197815</v>
+        <v>48</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.608073261538462</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3007068627232038</v>
       </c>
     </row>
@@ -6265,72 +6145,66 @@
         <v>1.596454757979705e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.06057868530895757</v>
+        <v>5.62381391772903e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.365392168732937</v>
+        <v>4.441376585496676e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.62381391772903e-07</v>
+        <v>-0.0587171342837934</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.441376585496676e-06</v>
+        <v>0.05186758361250195</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0587171342837934</v>
+        <v>0.006136715499942499</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05186758361250195</v>
+        <v>1.845375981439673</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.006136715499942499</v>
+        <v>1.822193372464539</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.822667224787555</v>
+        <v>4.435244616325028</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.822193372464539</v>
+        <v>3.281398003780261e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.435244616325028</v>
+        <v>120197082.0215279</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.281398003780261e-15</v>
+        <v>9.796278153729519e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>120197082.0215279</v>
+        <v>47.40746780076163</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.796278153729519e-07</v>
+        <v>0.0001089729331643076</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>47.40746780076163</v>
+        <v>7.852834816234859</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001089729331643076</v>
+        <v>1.182739973901739</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.852834816234859</v>
+        <v>0.00672003546601347</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.182739973901739</v>
+        <v>3.187586363550087</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.00672003546601347</v>
+        <v>0.9650306167632648</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.187586363550087</v>
+        <v>1.617130297244296</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9650306167632648</v>
+        <v>48</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.617130297244296</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2804398469364714</v>
       </c>
     </row>
@@ -6345,72 +6219,66 @@
         <v>1.601173493029499e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.05869379766522871</v>
+        <v>5.484175416388057e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.335710024479895</v>
+        <v>4.432127072437427e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.484175416388057e-07</v>
+        <v>-0.05708850676240527</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.432127072437427e-06</v>
+        <v>0.05071247442293027</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05708850676240527</v>
+        <v>0.005830201920382927</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05071247442293027</v>
+        <v>1.838303323211589</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005830201920382927</v>
+        <v>1.776202013602703</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.817276553531919</v>
+        <v>4.53923602769874</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.776202013602703</v>
+        <v>3.132770160310604e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.53923602769874</v>
+        <v>127128092.28869</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.132770160310604e-15</v>
+        <v>9.24242484682556e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>127128092.28869</v>
+        <v>50.6304273767398</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.24242484682556e-07</v>
+        <v>0.0001119616299642687</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>50.6304273767398</v>
+        <v>6.937957948240027</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001119616299642687</v>
+        <v>1.295954368179731</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.937957948240027</v>
+        <v>0.005389302223388262</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.295954368179731</v>
+        <v>3.247845464108302</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.005389302223388262</v>
+        <v>0.9650841070243033</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.247845464108302</v>
+        <v>1.571967203317758</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9650841070243033</v>
+        <v>57</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.571967203317758</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2752771861708639</v>
       </c>
     </row>
@@ -6425,72 +6293,66 @@
         <v>1.608239210294924e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.06363109876605696</v>
+        <v>5.420637015534918e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.300761869969549</v>
+        <v>4.423052369334401e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.420637015534918e-07</v>
+        <v>-0.05617673357731379</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.423052369334401e-06</v>
+        <v>0.0502158517703435</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05617673357731379</v>
+        <v>0.005677328066428848</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.0502158517703435</v>
+        <v>1.836810410349212</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005677328066428848</v>
+        <v>1.840080259676055</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.819787848704029</v>
+        <v>4.707024523580667</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.840080259676055</v>
+        <v>2.913406886131208e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.707024523580667</v>
+        <v>136340257.7625102</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.913406886131208e-15</v>
+        <v>8.61822738562118e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>136340257.7625102</v>
+        <v>54.15634719844314</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.61822738562118e-07</v>
+        <v>0.0001161948253918801</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>54.15634719844314</v>
+        <v>6.84563744065947</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001161948253918801</v>
+        <v>1.360929733945341</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>6.84563744065947</v>
+        <v>0.005445209282416146</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.360929733945341</v>
+        <v>3.248598143957394</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005445209282416146</v>
+        <v>0.9652995426157643</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.248598143957394</v>
+        <v>1.592336567976171</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9652995426157643</v>
+        <v>57</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.592336567976171</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2927539587544707</v>
       </c>
     </row>
@@ -6505,72 +6367,66 @@
         <v>1.616009932488661e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.07090650389610646</v>
+        <v>5.432501371626949e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.264057871861149</v>
+        <v>4.414012760240957e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.432501371626949e-07</v>
+        <v>-0.05602735101499458</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.414012760240957e-06</v>
+        <v>0.04996289967042059</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05602735101499458</v>
+        <v>0.005635415010755156</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04996289967042059</v>
+        <v>1.845232276305167</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005635415010755156</v>
+        <v>1.845999584841023</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.823844945849927</v>
+        <v>4.725107976719165</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.845999584841023</v>
+        <v>2.891149768258907e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.725107976719165</v>
+        <v>137012550.2574458</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.891149768258907e-15</v>
+        <v>8.612497768344886e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>137012550.2574458</v>
+        <v>54.2739324564837</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.612497768344886e-07</v>
+        <v>0.0001267896984171823</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>54.2739324564837</v>
+        <v>7.857045299566741</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001267896984171823</v>
+        <v>1.356194613748869</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.857045299566741</v>
+        <v>0.007827128845172488</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.356194613748869</v>
+        <v>3.190964515342853</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007827128845172488</v>
+        <v>0.9650498322329709</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.190964515342853</v>
+        <v>1.599418813034562</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9650498322329709</v>
+        <v>70</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.599418813034562</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3396206812395639</v>
       </c>
     </row>
@@ -6585,72 +6441,66 @@
         <v>1.62349940906283e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.07926710490937464</v>
+        <v>5.419495228456647e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.227613316715106</v>
+        <v>4.404961737875196e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.419495228456647e-07</v>
+        <v>-0.05563618384564593</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.404961737875196e-06</v>
+        <v>0.04972964558613818</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05563618384564593</v>
+        <v>0.005568377140307574</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04972964558613818</v>
+        <v>1.848090595100867</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005568377140307574</v>
+        <v>1.780505887681113</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.828324415520603</v>
+        <v>4.821643693675109</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.780505887681113</v>
+        <v>2.776539372060307e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.821643693675109</v>
+        <v>143296859.0722839</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.776539372060307e-15</v>
+        <v>8.227433334536509e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>143296859.0722839</v>
+        <v>57.01343120066549</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>8.227433334536509e-07</v>
+        <v>0.0001408718541068304</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>57.01343120066549</v>
+        <v>10.65387401759474</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001408718541068304</v>
+        <v>1.121280547345726</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.65387401759474</v>
+        <v>0.01598966424952061</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.121280547345726</v>
+        <v>3.009041850127368</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01598966424952061</v>
+        <v>0.9642454135975322</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.009041850127368</v>
+        <v>1.566115432804096</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9642454135975322</v>
+        <v>70</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.566115432804096</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4815780637187196</v>
       </c>
     </row>
@@ -6665,72 +6515,66 @@
         <v>1.630934272314415e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.09073527373911316</v>
+        <v>5.372396675322244e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.191189788321349</v>
+        <v>4.395967099719622e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.372396675322244e-07</v>
+        <v>-0.05490010063915518</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.395967099719622e-06</v>
+        <v>0.04951032279353064</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05490010063915518</v>
+        <v>0.005465356916208094</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.04951032279353064</v>
+        <v>1.859767933054407</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005465356916208094</v>
+        <v>1.876788566926914</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.849166434979011</v>
+        <v>4.518578935203153</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.876788566926914</v>
+        <v>2.506080532954666e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.518578935203153</v>
+        <v>157146652.7912759</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.506080532954666e-15</v>
+        <v>7.507857016273418e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>157146652.7912759</v>
+        <v>61.88783539864724</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.507857016273418e-07</v>
+        <v>0.0001439961807897218</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>61.88783539864724</v>
+        <v>11.3244710906767</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001439961807897218</v>
+        <v>1.157118434821226</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.3244710906767</v>
+        <v>0.01846659516018546</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.157118434821226</v>
+        <v>3.131983863256499</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01846659516018546</v>
+        <v>0.9650509390934279</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.131983863256499</v>
+        <v>1.564942093314992</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9650509390934279</v>
+        <v>70</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.564942093314992</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.6475122111536924</v>
       </c>
     </row>
@@ -6745,72 +6589,66 @@
         <v>1.637494291612363e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1062068078531725</v>
+        <v>5.326708026157343e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.155960123055385</v>
+        <v>4.387052569723568e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.326708026157343e-07</v>
+        <v>-0.05421155302841345</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.387052569723568e-06</v>
+        <v>0.04949734380585091</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05421155302841345</v>
+        <v>0.005389192296694475</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04949734380585091</v>
+        <v>1.895939938103136</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.005389192296694475</v>
+        <v>1.79624650103477</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.901652617513855</v>
+        <v>5.291856110504649</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.79624650103477</v>
+        <v>1.859281936666755e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.291856110504649</v>
+        <v>205658864.9164695</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.859281936666755e-15</v>
+        <v>5.807221952593177e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>205658864.9164695</v>
+        <v>78.63938691978338</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.807221952593177e-07</v>
+        <v>0.0001459386389174045</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>78.63938691978338</v>
+        <v>8.849053322440893</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001459386389174045</v>
+        <v>1.638944037226007</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.849053322440893</v>
+        <v>0.01142783380142827</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.638944037226007</v>
+        <v>3.360335716563258</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01142783380142827</v>
+        <v>0.9641511789803842</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.360335716563258</v>
+        <v>1.418779465350803</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9641511789803842</v>
+        <v>69</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.418779465350803</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.7577180627393428</v>
       </c>
     </row>
@@ -6825,72 +6663,66 @@
         <v>1.640934677887748e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.125676330580244</v>
+        <v>5.315983897823053e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.124519195181722</v>
+        <v>4.378205641938403e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.315983897823053e-07</v>
+        <v>-0.05373261209029127</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.378205641938403e-06</v>
+        <v>0.04975197143611582</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05373261209029127</v>
+        <v>0.005362799230904857</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.04975197143611582</v>
+        <v>1.901569411008069</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.005362799230904857</v>
+        <v>1.956656473171779</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.9179438869428</v>
+        <v>5.922847817542533</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.956656473171779</v>
+        <v>6.625557613838039e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.922847817542533</v>
+        <v>564051019.1293311</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>6.625557613838039e-16</v>
+        <v>2.115309418331566e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>564051019.1293311</v>
+        <v>210.7944690021363</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.115309418331566e-07</v>
+        <v>0.0001541161846238449</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>210.7944690021363</v>
+        <v>8.873427616909566</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001541161846238449</v>
+        <v>1.521241965840782</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.873427616909566</v>
+        <v>0.01213475663368033</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.521241965840782</v>
+        <v>3.319024626692745</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01213475663368033</v>
+        <v>0.9634257200005358</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.319024626692745</v>
+        <v>1.292377358758451</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9634257200005358</v>
+        <v>69</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.292377358758451</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.8119747717187085</v>
       </c>
     </row>
@@ -6905,72 +6737,66 @@
         <v>1.638683200567576e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1485456164721534</v>
+        <v>5.315983897823053e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.098921625373468</v>
+        <v>4.369422311887574e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.315983897823053e-07</v>
+        <v>-0.05325135502328248</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.369422311887574e-06</v>
+        <v>0.05070660472827037</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05325135502328248</v>
+        <v>0.005406969528478839</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.05070660472827037</v>
+        <v>1.90330605251081</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.005406969528478839</v>
+        <v>2.08005061138152</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.925348196929331</v>
+        <v>4.987525656452278</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.08005061138152</v>
+        <v>5.798247814687968e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.987525656452278</v>
+        <v>632956013.9947345</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.798247814687968e-16</v>
+        <v>1.881709489054764e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>632956013.9947345</v>
+        <v>232.2971246970999</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.881709489054764e-07</v>
+        <v>0.0001638645672375024</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>232.2971246970999</v>
+        <v>9.529396363599231</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001638645672375024</v>
+        <v>1.447692752498672</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.529396363599231</v>
+        <v>0.01488044222171786</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.447692752498672</v>
+        <v>3.267030744657714</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01488044222171786</v>
+        <v>0.9636828147381297</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.267030744657714</v>
+        <v>1.200467310521446</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9636828147381297</v>
+        <v>69</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.200467310521446</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.7986552891699421</v>
       </c>
     </row>
@@ -6985,72 +6811,66 @@
         <v>1.629254696223126e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1762593471072147</v>
+        <v>5.278199001142809e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.078280032660098</v>
+        <v>4.360827507389752e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.278199001142809e-07</v>
+        <v>-0.05164071617697186</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.360827507389752e-06</v>
+        <v>0.05419285105249413</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05164071617697186</v>
+        <v>0.005602909619236091</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05419285105249413</v>
+        <v>1.898400298085965</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005602909619236091</v>
+        <v>2.103135989271999</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.923154656482046</v>
+        <v>4.527031935776593</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.103135989271999</v>
+        <v>8.423553015796515e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.527031935776593</v>
+        <v>429236755.5974441</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>8.423553015796515e-16</v>
+        <v>2.769841988784005e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>429236755.5974441</v>
+        <v>155.199072216186</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.769841988784005e-07</v>
+        <v>0.000145234217040002</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>155.199072216186</v>
+        <v>10.09276792640935</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000145234217040002</v>
+        <v>1.262174556994158</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.09276792640935</v>
+        <v>0.01479413311660026</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.262174556994158</v>
+        <v>3.293267041301131</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01479413311660026</v>
+        <v>0.9634334139442258</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.293267041301131</v>
+        <v>1.229753569478564</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9634334139442258</v>
+        <v>51</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.229753569478564</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.7881860142909308</v>
       </c>
     </row>
@@ -7065,72 +6885,66 @@
         <v>1.612777438426013e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2122477913467767</v>
+        <v>5.190348318855232e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.054687148598614</v>
+        <v>4.3526730786718e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.190348318855232e-07</v>
+        <v>-0.04871289544015562</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.3526730786718e-06</v>
+        <v>0.06076193632305156</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04871289544015562</v>
+        <v>0.006062771132022712</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.06076193632305156</v>
+        <v>1.888915804835918</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.006062771132022712</v>
+        <v>1.994093458687663</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.914982129866257</v>
+        <v>4.51094094135398</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.994093458687663</v>
+        <v>1.174984429826753e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.51094094135398</v>
+        <v>307098209.0184154</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.174984429826753e-15</v>
+        <v>3.862812774682692e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>307098209.0184154</v>
+        <v>110.8119708169288</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.862812774682692e-07</v>
+        <v>0.0001329187028575868</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>110.8119708169288</v>
+        <v>10.80438848129551</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001329187028575868</v>
+        <v>1.061206165531026</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.80438848129551</v>
+        <v>0.01551623958397178</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.061206165531026</v>
+        <v>3.169655071324678</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01551623958397178</v>
+        <v>0.9630958755229989</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.169655071324678</v>
+        <v>1.245222626892347</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9630958755229989</v>
+        <v>45</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.245222626892347</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.7610765667159873</v>
       </c>
     </row>
@@ -7145,72 +6959,66 @@
         <v>1.588655433952974e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2560458678861076</v>
+        <v>5.111817933523638e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.017488084482893</v>
+        <v>4.345176368906368e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.111817933523638e-07</v>
+        <v>-0.04466356197759375</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.345176368906368e-06</v>
+        <v>0.07191350150535675</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04466356197759375</v>
+        <v>0.00716103549897599</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.07191350150535675</v>
+        <v>1.88019986514872</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00716103549897599</v>
+        <v>1.827612359579073</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.901865578606529</v>
+        <v>4.802732501209689</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.827612359579073</v>
+        <v>2.139977996337707e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.802732501209689</v>
+        <v>169240840.7142239</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.139977996337707e-15</v>
+        <v>7.000680179914465e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>169240840.7142239</v>
+        <v>61.2942387954419</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.000680179914465e-07</v>
+        <v>0.0001485331662066927</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>61.2942387954419</v>
+        <v>11.24152378309503</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001485331662066927</v>
+        <v>1.091878700548992</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.24152378309503</v>
+        <v>0.01877041203456312</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.091878700548992</v>
+        <v>3.064376066573456</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01877041203456312</v>
+        <v>0.9609380683834875</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.064376066573456</v>
+        <v>1.310380409467491</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9609380683834875</v>
+        <v>24</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.310380409467491</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.6452750635818694</v>
       </c>
     </row>
@@ -7225,72 +7033,66 @@
         <v>1.555557352453461e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3005493917624099</v>
+        <v>5.082429700974277e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9565726160107038</v>
+        <v>4.338561246036856e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.082429700974277e-07</v>
+        <v>-0.03906958230638822</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.338561246036856e-06</v>
+        <v>0.09041433478508128</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03906958230638822</v>
+        <v>0.009689226412856427</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.09041433478508128</v>
+        <v>1.883540681422744</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.009689226412856427</v>
+        <v>1.790195197168969</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.900746469441516</v>
+        <v>4.037752016224357</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.790195197168969</v>
+        <v>3.78662926759835e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.037752016224357</v>
+        <v>95766110.2037956</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.78662926759835e-15</v>
+        <v>1.239133660882496e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>95766110.2037956</v>
+        <v>34.7277369176493</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.239133660882496e-06</v>
+        <v>0.0001926509200515212</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>34.7277369176493</v>
+        <v>12.3012501115188</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001926509200515212</v>
+        <v>1.132743674882316</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>12.3012501115188</v>
+        <v>0.0291520825399683</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.132743674882316</v>
+        <v>2.831669280106687</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0291520825399683</v>
+        <v>0.9613376250789804</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.831669280106687</v>
+        <v>1.362757155576789</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9613376250789804</v>
+        <v>24</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.362757155576789</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.523037219917566</v>
       </c>
     </row>
@@ -7305,72 +7107,66 @@
         <v>1.514236897860943e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3299136105814308</v>
+        <v>5.082429700974277e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.8731296232579355</v>
+        <v>4.333107012362997e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.082429700974277e-07</v>
+        <v>-0.03164856455125405</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.333107012362997e-06</v>
+        <v>0.1158757342586041</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.03164856455125405</v>
+        <v>0.01441093557295105</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1158757342586041</v>
+        <v>1.817044197205818</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01441093557295105</v>
+        <v>1.80134680010016</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.812698227475603</v>
+        <v>4.31637848527701</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.80134680010016</v>
+        <v>4.439516685649261e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.31637848527701</v>
+        <v>83801574.46716209</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>4.439516685649261e-15</v>
+        <v>1.381213253367847e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>83801574.46716209</v>
+        <v>31.17741106773066</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.381213253367847e-06</v>
+        <v>0.0002217103453920671</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>31.17741106773066</v>
+        <v>13.85572341016938</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002217103453920671</v>
+        <v>1.016038326399418</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>13.85572341016938</v>
+        <v>0.04256418960872917</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.016038326399418</v>
+        <v>2.498875442357557</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.04256418960872917</v>
+        <v>0.9555592248321521</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.498875442357557</v>
+        <v>1.47232612070865</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9555592248321521</v>
+        <v>25</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.47232612070865</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.4504405044544714</v>
       </c>
     </row>
@@ -7385,72 +7181,66 @@
         <v>1.469556722803898e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3269422200393814</v>
+        <v>5.082429700974277e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.8010959875607684</v>
+        <v>4.328919203763e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.082429700974277e-07</v>
+        <v>-0.02474571604070486</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.328919203763e-06</v>
+        <v>0.1364227912513121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.02474571604070486</v>
+        <v>0.01921287051486138</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1364227912513121</v>
+        <v>1.786680214538617</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01921287051486138</v>
+        <v>1.676736793549558</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.750858602979475</v>
+        <v>5.094875670514591</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.676736793549558</v>
+        <v>9.12083428499749e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.094875670514591</v>
+        <v>43738325.4443119</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>9.12083428499749e-15</v>
+        <v>2.632029416489471e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>43738325.4443119</v>
+        <v>17.44853096907347</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.632029416489471e-06</v>
+        <v>0.0002331209945944244</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>17.44853096907347</v>
+        <v>10.2248319138218</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0002331209945944244</v>
+        <v>1.58431006191893</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.2248319138218</v>
+        <v>0.02437214437072659</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.58431006191893</v>
+        <v>2.738799113132871</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02437214437072659</v>
+        <v>0.9545340146602357</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.738799113132871</v>
+        <v>1.749868586617306</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9545340146602357</v>
+        <v>25</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.749868586617306</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2688240784973022</v>
       </c>
     </row>
@@ -7465,72 +7255,66 @@
         <v>1.426501723173181e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2912241651974354</v>
+        <v>5.08100666571017e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.7788623745751417</v>
+        <v>4.32570652909997e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.08100666571017e-07</v>
+        <v>-0.01976990638002486</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.32570652909997e-06</v>
+        <v>0.148592482161181</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.01976990638002486</v>
+        <v>0.02246512916520331</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.148592482161181</v>
+        <v>1.775591771358584</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02246512916520331</v>
+        <v>1.693247192692869</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.733564214487827</v>
+        <v>4.347505959568304</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.693247192692869</v>
+        <v>1.252625862154153e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.347505959568304</v>
+        <v>31965869.22460169</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.252625862154153e-14</v>
+        <v>3.589357932841998e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>31965869.22460169</v>
+        <v>12.79954144156637</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.589357932841998e-06</v>
+        <v>0.0001899195618014744</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>12.79954144156637</v>
+        <v>8.796854993050166</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001899195618014744</v>
+        <v>1.798743207304956</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.796854993050166</v>
+        <v>0.01469686029359837</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.798743207304956</v>
+        <v>2.938735354506901</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01469686029359837</v>
+        <v>0.9541965066736805</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.938735354506901</v>
+        <v>1.699536862355207</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9541965066736805</v>
+        <v>25</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.699536862355207</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1856173785832269</v>
       </c>
     </row>
@@ -7545,72 +7329,66 @@
         <v>1.387675494027535e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2338103845519877</v>
+        <v>5.044141492972291e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.8112185794201316</v>
+        <v>4.323186124816614e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.044141492972291e-07</v>
+        <v>-0.01641332140164024</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.323186124816614e-06</v>
+        <v>0.1556759488924504</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.01641332140164024</v>
+        <v>0.02450345736824011</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1556759488924504</v>
+        <v>1.763006345007871</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02450345736824011</v>
+        <v>1.714497589993922</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.712586416386316</v>
+        <v>3.873015714624914</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.714497589993922</v>
+        <v>1.782005163162034e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.873015714624914</v>
+        <v>22547083.4984341</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.782005163162034e-14</v>
+        <v>5.071501685449003e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>22547083.4984341</v>
+        <v>9.059197009782235</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.071501685449003e-06</v>
+        <v>0.0001569119363582608</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9.059197009782235</v>
+        <v>9.017090253760303</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001569119363582608</v>
+        <v>1.401679021940973</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.017090253760303</v>
+        <v>0.01275818264193813</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.401679021940973</v>
+        <v>2.95690567632311</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01275818264193813</v>
+        <v>0.9547568501397387</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.95690567632311</v>
+        <v>1.734730401091034</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9547568501397387</v>
+        <v>16</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.734730401091034</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1713584243460127</v>
       </c>
     </row>
@@ -7625,72 +7403,66 @@
         <v>1.352461486774195e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1659833047163147</v>
+        <v>4.968948789348564e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.8773663654965169</v>
+        <v>4.321043448615622e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.968948789348564e-07</v>
+        <v>-0.01505470187717058</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.321043448615622e-06</v>
+        <v>0.1599345257021442</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01505470187717058</v>
+        <v>0.02580538269776211</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1599345257021442</v>
+        <v>1.735419800911251</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02580538269776211</v>
+        <v>1.710066223793512</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.672825413124232</v>
+        <v>3.684839498442565</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.710066223793512</v>
+        <v>1.968658219459454e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.684839498442565</v>
+        <v>20575820.09242746</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.968658219459454e-14</v>
+        <v>5.512621128936857e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>20575820.09242746</v>
+        <v>8.334597517010563</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.512621128936857e-06</v>
+        <v>0.0001491152997680371</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>8.334597517010563</v>
+        <v>10.23492160148425</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001491152997680371</v>
+        <v>1.139214686817836</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.23492160148425</v>
+        <v>0.01562036747619959</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.139214686817836</v>
+        <v>2.835624229342626</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01562036747619959</v>
+        <v>0.953406030021177</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.835624229342626</v>
+        <v>1.762612537433784</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.953406030021177</v>
+        <v>16</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.762612537433784</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1780927851586684</v>
       </c>
     </row>
@@ -8067,7 +7839,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.220571298417162</v>
+        <v>1.197077132780111</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.394794413176379</v>
@@ -8156,7 +7928,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.202244625282547</v>
+        <v>1.175229266561645</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.373711298102056</v>
@@ -8245,7 +8017,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.202537236432301</v>
+        <v>1.175738529935392</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.298071934846405</v>
@@ -8334,7 +8106,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.203671016767462</v>
+        <v>1.177109532995225</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.228923517660529</v>
@@ -8423,7 +8195,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.218383706125806</v>
+        <v>1.191540528473614</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.207818173770614</v>
@@ -8512,7 +8284,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.225348575473211</v>
+        <v>1.198471135013498</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.237716826433764</v>
@@ -8601,7 +8373,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.245485893030154</v>
+        <v>1.214045866519893</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.259062985067813</v>
@@ -8690,7 +8462,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.237252549204664</v>
+        <v>1.208923913632691</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.387832945990346</v>
@@ -8779,7 +8551,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.238804203593054</v>
+        <v>1.210437607046784</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.148049981029735</v>
@@ -8868,7 +8640,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.229815391045074</v>
+        <v>1.204389346942153</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.279016696462533</v>
@@ -8957,7 +8729,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.236177663307801</v>
+        <v>1.210072307273197</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.134991622585725</v>
@@ -9046,7 +8818,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.236472298669197</v>
+        <v>1.211225533801157</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.311837954399951</v>
@@ -9135,7 +8907,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.235655241618591</v>
+        <v>1.212998456203763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.232326105694106</v>
@@ -9224,7 +8996,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.23266224254871</v>
+        <v>1.211075819141584</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.275504320798754</v>
@@ -9313,7 +9085,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.227155852043287</v>
+        <v>1.201111442681023</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.255210201656428</v>
@@ -9402,7 +9174,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.222864090398058</v>
+        <v>1.19614917399245</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.325667114564692</v>
@@ -9491,7 +9263,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.237940252220412</v>
+        <v>1.212546376731829</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.074175345642824</v>
@@ -9580,7 +9352,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.238273795912854</v>
+        <v>1.218604278478801</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.169027726203514</v>
@@ -9669,7 +9441,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.244157579528978</v>
+        <v>1.223111433801912</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.221276187521068</v>
@@ -9758,7 +9530,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.246456666944751</v>
+        <v>1.222760387551967</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.055119314473315</v>
@@ -9847,7 +9619,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.256009131623123</v>
+        <v>1.241397152154579</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.2396423605039</v>
@@ -9936,7 +9708,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.254898857256195</v>
+        <v>1.242213920086529</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.231139838715003</v>
@@ -10025,7 +9797,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.261600739064034</v>
+        <v>1.248896646180832</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.224309613276656</v>
@@ -10114,7 +9886,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.269368059319512</v>
+        <v>1.250329220206944</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.114736563897788</v>
@@ -10203,7 +9975,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.254564461202405</v>
+        <v>1.241956610344228</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.239963077348106</v>
@@ -10292,7 +10064,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.248414588448754</v>
+        <v>1.235689616062496</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.187493226107644</v>
@@ -10381,7 +10153,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.257225866398799</v>
+        <v>1.243715997962328</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.094223488055203</v>
@@ -10470,7 +10242,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.258050774976264</v>
+        <v>1.237566808037391</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.069730555550216</v>
@@ -10559,7 +10331,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.254181598687562</v>
+        <v>1.240570318374764</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.256070937855991</v>
@@ -10648,7 +10420,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.270957412073467</v>
+        <v>1.259321228906276</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.119480115499692</v>
@@ -10737,7 +10509,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.261022074497149</v>
+        <v>1.249734873298794</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.106022475946679</v>
@@ -10826,7 +10598,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.255349816074765</v>
+        <v>1.239600537248356</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.231256144512798</v>
@@ -10915,7 +10687,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.243454040351603</v>
+        <v>1.23228039319779</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.262629160459456</v>
@@ -11004,7 +10776,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.247607411470029</v>
+        <v>1.237139987051353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.240843701069545</v>
@@ -11093,7 +10865,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.241053656996264</v>
+        <v>1.232292849935278</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.226649082771711</v>
@@ -11182,7 +10954,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.231725061571602</v>
+        <v>1.222423688419819</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.259356991398023</v>
@@ -11271,7 +11043,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.23331346839253</v>
+        <v>1.22331084383175</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.413380751062717</v>
@@ -11360,7 +11132,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.232975497334501</v>
+        <v>1.221788379837663</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.25284155836548</v>
@@ -11449,7 +11221,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.231089123184599</v>
+        <v>1.219361185631746</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.358141302893209</v>
@@ -11538,7 +11310,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.231059629596056</v>
+        <v>1.220860990183974</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.206077105407404</v>
@@ -11627,7 +11399,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.226104062410037</v>
+        <v>1.216678308332555</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.488014078884492</v>
@@ -11716,7 +11488,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.223622894815725</v>
+        <v>1.215873678618647</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.320505457641568</v>
@@ -11805,7 +11577,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.23671503678947</v>
+        <v>1.222737866816844</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.377032888410925</v>
@@ -11894,7 +11666,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.239011583897777</v>
+        <v>1.230279743736186</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.313532197858292</v>
@@ -11983,7 +11755,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.228238322511316</v>
+        <v>1.2191194492619</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.15420857692199</v>
@@ -12072,7 +11844,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.226727405693258</v>
+        <v>1.21894698535267</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.185156354064604</v>
@@ -12161,7 +11933,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.232069572085027</v>
+        <v>1.225547918004365</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.41017171041706</v>
@@ -12250,7 +12022,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.227443843940036</v>
+        <v>1.222589207876971</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.367220904287937</v>
@@ -12339,7 +12111,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.214201914246832</v>
+        <v>1.207293117861227</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.357726219750083</v>
@@ -12428,7 +12200,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.214143034132583</v>
+        <v>1.206448365131912</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.324994986166366</v>
@@ -12517,7 +12289,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.220463929613673</v>
+        <v>1.211454162935925</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.370992368463732</v>
@@ -12606,7 +12378,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.219901776049063</v>
+        <v>1.211541329620244</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.287385308078964</v>
@@ -12695,7 +12467,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.220986810604028</v>
+        <v>1.210996405984024</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.104258214095927</v>
@@ -12784,7 +12556,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.227838782599842</v>
+        <v>1.218959596502891</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.274727010905926</v>
@@ -12873,7 +12645,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.217088257599659</v>
+        <v>1.208213722255412</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.367645885472022</v>
@@ -12962,7 +12734,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.220458307963715</v>
+        <v>1.209992322432775</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.133839058998754</v>
@@ -13051,7 +12823,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.226836594083238</v>
+        <v>1.214908154585064</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.230959729058442</v>
@@ -13140,7 +12912,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.212004389240262</v>
+        <v>1.201262352118922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.187017623710393</v>
@@ -13229,7 +13001,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.203532712994711</v>
+        <v>1.187669679642362</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.203770548959184</v>
@@ -13318,7 +13090,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.206569204676409</v>
+        <v>1.193329278646381</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.23326945372239</v>
@@ -13407,7 +13179,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.217908920793107</v>
+        <v>1.202701650055115</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.300123346514511</v>
@@ -13496,7 +13268,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.214613625519595</v>
+        <v>1.199729360463209</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.378840994576335</v>
@@ -13585,7 +13357,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.223839446068748</v>
+        <v>1.204594133405447</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.270490757076167</v>
@@ -13674,7 +13446,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.223733031771458</v>
+        <v>1.207819450228773</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.280139214454349</v>
@@ -13763,7 +13535,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.223686296929642</v>
+        <v>1.210409331505842</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.306337409471674</v>
@@ -13852,7 +13624,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.213843932081409</v>
+        <v>1.199875759075144</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.300609931059518</v>
@@ -13941,7 +13713,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.213148459833968</v>
+        <v>1.198653772621673</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.320257952109176</v>
@@ -14030,7 +13802,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.213616841447895</v>
+        <v>1.199175712953082</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.124532820399373</v>
@@ -14119,7 +13891,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.215259522415049</v>
+        <v>1.199986969159902</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.231074599750653</v>
@@ -14208,7 +13980,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.220412839032806</v>
+        <v>1.20417734940388</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.302030823098351</v>
@@ -14297,7 +14069,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.21325068370034</v>
+        <v>1.200754545305781</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.445088739407734</v>
@@ -14386,7 +14158,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.208406928205847</v>
+        <v>1.197138226603637</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.232095002591905</v>
@@ -14475,7 +14247,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.227403172881875</v>
+        <v>1.218833134705952</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.248813935306828</v>
@@ -14564,7 +14336,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.247422324923767</v>
+        <v>1.23915470778845</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.139151169089443</v>
@@ -14653,7 +14425,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.234348649538515</v>
+        <v>1.224004667447893</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.331279582491908</v>
@@ -14742,7 +14514,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.233505706514192</v>
+        <v>1.226340262353701</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.175300724074727</v>
@@ -14831,7 +14603,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.245223140984941</v>
+        <v>1.23324289096908</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.177360705187712</v>
@@ -14920,7 +14692,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.239092685539172</v>
+        <v>1.233194318791991</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.188473943805139</v>
@@ -15009,7 +14781,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.250556253631594</v>
+        <v>1.243716424537288</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.104407948663417</v>
@@ -15098,7 +14870,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.244040011509182</v>
+        <v>1.233097613077086</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.252498659508665</v>
@@ -15187,7 +14959,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.238394499137546</v>
+        <v>1.227282554630543</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.304525290428382</v>
@@ -15473,7 +15245,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.658212228391772</v>
+        <v>1.676854866496602</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.971711588038134</v>
@@ -15562,7 +15334,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.622992904259597</v>
+        <v>1.640152071535538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.918089996549853</v>
@@ -15651,7 +15423,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.62220387382507</v>
+        <v>1.641752717478667</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.585387788661671</v>
@@ -15740,7 +15512,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616067071069796</v>
+        <v>1.634663255531046</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.773684794565008</v>
@@ -15829,7 +15601,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621594093665327</v>
+        <v>1.636290473910638</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.033020304147424</v>
@@ -15918,7 +15690,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.621674537990914</v>
+        <v>1.634720469761155</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.562939240085221</v>
@@ -16007,7 +15779,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.628174474582319</v>
+        <v>1.633545491758214</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.158576124981787</v>
@@ -16096,7 +15868,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61627137608838</v>
+        <v>1.625612455034677</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.117539143721707</v>
@@ -16185,7 +15957,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615852967232889</v>
+        <v>1.624578360368828</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.01519573408414</v>
@@ -16274,7 +16046,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.615160046524047</v>
+        <v>1.630177901676137</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.222396204923641</v>
@@ -16363,7 +16135,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588344955969174</v>
+        <v>1.605694980346806</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.942958862692591</v>
@@ -16452,7 +16224,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.578377270408971</v>
+        <v>1.598029475484372</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.107561792917902</v>
@@ -16541,7 +16313,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579473387335339</v>
+        <v>1.599870299284539</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.053335838605406</v>
@@ -16630,7 +16402,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.559407018331865</v>
+        <v>1.577362175788103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.00457303149435</v>
@@ -16719,7 +16491,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558595948484128</v>
+        <v>1.577597887929819</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.134284468355605</v>
@@ -16808,7 +16580,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.557618994829097</v>
+        <v>1.574165570829103</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.884032696536549</v>
@@ -16897,7 +16669,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.578027606963987</v>
+        <v>1.592388280384936</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.029587721785016</v>
@@ -16986,7 +16758,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.57918915997506</v>
+        <v>1.594557929667202</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.089663020690603</v>
@@ -17075,7 +16847,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57783765743675</v>
+        <v>1.59362309214951</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.270406734498984</v>
@@ -17164,7 +16936,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.570930866872407</v>
+        <v>1.590534855872834</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.112530286439541</v>
@@ -17253,7 +17025,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.591621660897671</v>
+        <v>1.609559895367283</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.182409232180635</v>
@@ -17342,7 +17114,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.602652496072311</v>
+        <v>1.623206108534026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.836697498327214</v>
@@ -17431,7 +17203,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.59802859472335</v>
+        <v>1.611241193124889</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.162519949188577</v>
@@ -17520,7 +17292,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.615711631690598</v>
+        <v>1.622111964228617</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.702020749146204</v>
@@ -17609,7 +17381,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.604302111284161</v>
+        <v>1.611744466115649</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.839026646810279</v>
@@ -17698,7 +17470,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.629497777765625</v>
+        <v>1.631940778220254</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.901262607882664</v>
@@ -17787,7 +17559,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.636200975134528</v>
+        <v>1.635695370558225</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.176256653015614</v>
@@ -17876,7 +17648,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.622443115342932</v>
+        <v>1.614247348549426</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.29951646783234</v>
@@ -17965,7 +17737,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62986399706324</v>
+        <v>1.625381952837307</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.169272864040352</v>
@@ -18054,7 +17826,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.626989411983434</v>
+        <v>1.616358066952726</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.265922928658062</v>
@@ -18143,7 +17915,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597195150045909</v>
+        <v>1.591763562092836</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.748126408274792</v>
@@ -18232,7 +18004,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.587724072951484</v>
+        <v>1.583641272143775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.911046163994419</v>
@@ -18321,7 +18093,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.566298990605082</v>
+        <v>1.566941686176194</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.869315276510883</v>
@@ -18410,7 +18182,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.559040876021334</v>
+        <v>1.556896446802891</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.790965682171633</v>
@@ -18499,7 +18271,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.535033134115112</v>
+        <v>1.532280195776663</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.016500610895882</v>
@@ -18588,7 +18360,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.523623143934652</v>
+        <v>1.520029010607871</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.979120082923153</v>
@@ -18677,7 +18449,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517918432866023</v>
+        <v>1.51357950420495</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.737037974965321</v>
@@ -18766,7 +18538,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506966704025831</v>
+        <v>1.504578279266171</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.750252741370431</v>
@@ -18855,7 +18627,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51005984779147</v>
+        <v>1.509706633149221</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.651269067722918</v>
@@ -18944,7 +18716,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.511165686289535</v>
+        <v>1.509912007407318</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.707251829218371</v>
@@ -19033,7 +18805,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.498622611993398</v>
+        <v>1.500796923619103</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.844902601379666</v>
@@ -19122,7 +18894,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488931646672534</v>
+        <v>1.491728728693299</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.641006992906129</v>
@@ -19211,7 +18983,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.4912831129882</v>
+        <v>1.491726478220152</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.660815481647368</v>
@@ -19300,7 +19072,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489893291100113</v>
+        <v>1.490346193776652</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.626673481755679</v>
@@ -19389,7 +19161,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.477897872111232</v>
+        <v>1.478844924691614</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.725393990395518</v>
@@ -19478,7 +19250,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.501157277099272</v>
+        <v>1.501005698084169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.477565819594537</v>
@@ -19567,7 +19339,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.500610442363238</v>
+        <v>1.499981465214571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.392918548252506</v>
@@ -19656,7 +19428,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507479956233043</v>
+        <v>1.501569116203555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.701377173723718</v>
@@ -19745,7 +19517,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.510356622481727</v>
+        <v>1.505652576472061</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.559492339396671</v>
@@ -19834,7 +19606,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.530049043246981</v>
+        <v>1.523074607167899</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.509201718451301</v>
@@ -19923,7 +19695,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.529738238586004</v>
+        <v>1.522388926411426</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.562109929349219</v>
@@ -20012,7 +19784,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.539982656215207</v>
+        <v>1.533112792720519</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.747869752629659</v>
@@ -20101,7 +19873,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.55322932076516</v>
+        <v>1.548965320844495</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.852271498868805</v>
@@ -20190,7 +19962,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547008921340501</v>
+        <v>1.540131935979413</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.92055275286174</v>
@@ -20279,7 +20051,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.534270143267208</v>
+        <v>1.528926685250165</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.831710478928446</v>
@@ -20368,7 +20140,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.527689021364303</v>
+        <v>1.523106846171962</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.77288095230331</v>
@@ -20457,7 +20229,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.527077991643489</v>
+        <v>1.518032436508337</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.053940566910493</v>
@@ -20546,7 +20318,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.51985028432435</v>
+        <v>1.514285776115851</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.844175465551285</v>
@@ -20635,7 +20407,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.510171184740629</v>
+        <v>1.503458628007334</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.722661948767901</v>
@@ -20724,7 +20496,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.51214373354861</v>
+        <v>1.507291690083555</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.903344306880075</v>
@@ -20813,7 +20585,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.516500440584971</v>
+        <v>1.503547540020848</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.963245515460037</v>
@@ -20902,7 +20674,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.524495183768148</v>
+        <v>1.513323333658887</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.81681369117481</v>
@@ -20991,7 +20763,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.520746037771606</v>
+        <v>1.509592090891557</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.779222897681256</v>
@@ -21080,7 +20852,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.523621212902463</v>
+        <v>1.50995134356775</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.790674837274281</v>
@@ -21169,7 +20941,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.519156404640868</v>
+        <v>1.503824380201205</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.992189989889949</v>
@@ -21258,7 +21030,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.52506814275948</v>
+        <v>1.511497664367445</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.825553598973147</v>
@@ -21347,7 +21119,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.529062540063674</v>
+        <v>1.51532573560765</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.073555137496931</v>
@@ -21436,7 +21208,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.529892294898209</v>
+        <v>1.511371220225788</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.992789870479132</v>
@@ -21525,7 +21297,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.531418592755299</v>
+        <v>1.514359926909652</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.544377896194686</v>
@@ -21614,7 +21386,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.535740316964277</v>
+        <v>1.516447837653332</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.100776705547411</v>
@@ -21703,7 +21475,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.548043890275868</v>
+        <v>1.52425155306298</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.153134579935084</v>
@@ -21792,7 +21564,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.547850933292082</v>
+        <v>1.524742168029945</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.828138272048946</v>
@@ -21881,7 +21653,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.551223409269099</v>
+        <v>1.528711951690656</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.867341673903415</v>
@@ -21970,7 +21742,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.560915024699641</v>
+        <v>1.537861175879677</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.969680559025042</v>
@@ -22059,7 +21831,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.533152931264234</v>
+        <v>1.515320820708432</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.700166255130656</v>
@@ -22148,7 +21920,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.522794110210778</v>
+        <v>1.512641439576251</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.678141890656156</v>
@@ -22237,7 +22009,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.535629123856677</v>
+        <v>1.52276953548289</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.713105045585076</v>
@@ -22326,7 +22098,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.528594685218735</v>
+        <v>1.525016712227615</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.758405100576371</v>
@@ -22415,7 +22187,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.539204376210674</v>
+        <v>1.533895388744713</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.640616551305957</v>
@@ -22504,7 +22276,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.530068008617072</v>
+        <v>1.523269058664064</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.91141281855204</v>
@@ -22593,7 +22365,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.508494811811878</v>
+        <v>1.499301658345371</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.693654980808574</v>
@@ -22879,7 +22651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.619803226316045</v>
+        <v>1.589998903439672</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.313712125941171</v>
@@ -22968,7 +22740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.608980725182735</v>
+        <v>1.581089376017448</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.021131042894375</v>
@@ -23057,7 +22829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60944646858597</v>
+        <v>1.576795403230282</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.686463310800318</v>
@@ -23146,7 +22918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604414189474617</v>
+        <v>1.570810374678699</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.477335979122932</v>
@@ -23235,7 +23007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592106055114066</v>
+        <v>1.554218807679635</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.336808527019565</v>
@@ -23324,7 +23096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.582520759818454</v>
+        <v>1.540467366985719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.538678850043658</v>
@@ -23413,7 +23185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581151862845021</v>
+        <v>1.530599261799236</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.457620795696398</v>
@@ -23502,7 +23274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.559842364819175</v>
+        <v>1.510875058489581</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.398884997046521</v>
@@ -23591,7 +23363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.55961461111846</v>
+        <v>1.508866951876366</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.355574622379195</v>
@@ -23680,7 +23452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549790229773052</v>
+        <v>1.50177686296729</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.357117069219667</v>
@@ -23769,7 +23541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.549171703517085</v>
+        <v>1.496992616060906</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.265032540428241</v>
@@ -23858,7 +23630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545450690718855</v>
+        <v>1.494904715431742</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.128037925865279</v>
@@ -23947,7 +23719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545388752471351</v>
+        <v>1.492505274332227</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.949421531583009</v>
@@ -24036,7 +23808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535856251879759</v>
+        <v>1.482182520136831</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.024062834026261</v>
@@ -24125,7 +23897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539674044727461</v>
+        <v>1.479513372162634</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.060038493310117</v>
@@ -24214,7 +23986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.536974286158297</v>
+        <v>1.474762277782517</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.997116585130294</v>
@@ -24303,7 +24075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.551207351021969</v>
+        <v>1.487385943435707</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.094087124828756</v>
@@ -24392,7 +24164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554126336687783</v>
+        <v>1.491947862503897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.066333605417735</v>
@@ -24481,7 +24253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560442687597291</v>
+        <v>1.49513056249243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.016684152045281</v>
@@ -24570,7 +24342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566275861980741</v>
+        <v>1.499195200185626</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.160891107527022</v>
@@ -24659,7 +24431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563735923178851</v>
+        <v>1.503876943788749</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.032403059224662</v>
@@ -24748,7 +24520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567486033189368</v>
+        <v>1.513847203895068</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.043797432426947</v>
@@ -24837,7 +24609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.578099658505797</v>
+        <v>1.528189811528811</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.264983110202174</v>
@@ -24926,7 +24698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592549210450334</v>
+        <v>1.539720053464696</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.399150846397692</v>
@@ -25015,7 +24787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.583861049884854</v>
+        <v>1.53017556533507</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.209369708518423</v>
@@ -25104,7 +24876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.565144055891555</v>
+        <v>1.516506142250985</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.497453149751951</v>
@@ -25193,7 +24965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557177768669483</v>
+        <v>1.510459864037988</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.104737409054794</v>
@@ -25282,7 +25054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558777023555184</v>
+        <v>1.506593487979352</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.315125867662269</v>
@@ -25371,7 +25143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570248707228595</v>
+        <v>1.527044915321528</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.953008212396809</v>
@@ -25460,7 +25232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.569680403431219</v>
+        <v>1.532354961593547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.366591638054667</v>
@@ -25549,7 +25321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567938499281915</v>
+        <v>1.531096876360895</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.307901999415267</v>
@@ -25638,7 +25410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565637496785692</v>
+        <v>1.532693605224753</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.359856465255933</v>
@@ -25727,7 +25499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.545495747602333</v>
+        <v>1.513754423380306</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.113153360472219</v>
@@ -25816,7 +25588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550903396356768</v>
+        <v>1.51784058088737</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.342358953993825</v>
@@ -25905,7 +25677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545995380117403</v>
+        <v>1.515295795776702</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.158558652370654</v>
@@ -25994,7 +25766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551953475849967</v>
+        <v>1.521619504335292</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.232773868895139</v>
@@ -26083,7 +25855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545095610720522</v>
+        <v>1.508483447389483</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.014099523793521</v>
@@ -26172,7 +25944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550062025010965</v>
+        <v>1.513710054681757</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.338807130101721</v>
@@ -26261,7 +26033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538518534884378</v>
+        <v>1.506560296257797</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.326968961423748</v>
@@ -26350,7 +26122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542919053160177</v>
+        <v>1.512577719233201</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.010928830720407</v>
@@ -26439,7 +26211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548361723958167</v>
+        <v>1.512408390871529</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.261564421902257</v>
@@ -26528,7 +26300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549442453827457</v>
+        <v>1.512285510150068</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.872621718207986</v>
@@ -26617,7 +26389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558377503982623</v>
+        <v>1.519484200673404</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.167755755486021</v>
@@ -26706,7 +26478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561084649108252</v>
+        <v>1.517080505310926</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.97375430201379</v>
@@ -26795,7 +26567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.558417514168696</v>
+        <v>1.515629334621245</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.087098896913592</v>
@@ -26884,7 +26656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.566370911696514</v>
+        <v>1.519966883692891</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.258899415761247</v>
@@ -26973,7 +26745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570758700788094</v>
+        <v>1.519264808911116</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.215372495985262</v>
@@ -27062,7 +26834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585544065951612</v>
+        <v>1.528229295877712</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.142082689361061</v>
@@ -27151,7 +26923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.570114216889422</v>
+        <v>1.524321409794378</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.174492338475893</v>
@@ -27240,7 +27012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566670684631816</v>
+        <v>1.520341255523129</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.179658932110891</v>
@@ -27329,7 +27101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.56226558198422</v>
+        <v>1.514629624206211</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.217314266835322</v>
@@ -27418,7 +27190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.56941710712408</v>
+        <v>1.522436133818657</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.230135635139129</v>
@@ -27507,7 +27279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561604165293325</v>
+        <v>1.50984694397086</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.538275656311616</v>
@@ -27596,7 +27368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.569792185649955</v>
+        <v>1.514295730743346</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.546661040465531</v>
@@ -27685,7 +27457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564365906661412</v>
+        <v>1.512270521933599</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.515049596414493</v>
@@ -27774,7 +27546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.562124363432283</v>
+        <v>1.507079284267555</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.279895252513218</v>
@@ -27863,7 +27635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.566055377867674</v>
+        <v>1.510713837581658</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.524330264660651</v>
@@ -27952,7 +27724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.567924298853782</v>
+        <v>1.516987912918828</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.550971602757147</v>
@@ -28041,7 +27813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567522446867412</v>
+        <v>1.515275250855705</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.131501533929511</v>
@@ -28130,7 +27902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.561211393993851</v>
+        <v>1.509961310646659</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.526424505955686</v>
@@ -28219,7 +27991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56062476768903</v>
+        <v>1.50892892676449</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.508082048813706</v>
@@ -28308,7 +28080,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.552096881644333</v>
+        <v>1.500886965043329</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.259947981425735</v>
@@ -28397,7 +28169,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.560654839136208</v>
+        <v>1.512098263026923</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.998865996169437</v>
@@ -28486,7 +28258,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.560576939712824</v>
+        <v>1.50585590217945</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.223990629140865</v>
@@ -28575,7 +28347,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.565245524368238</v>
+        <v>1.509045833514199</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.298246611688691</v>
@@ -28664,7 +28436,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.551937827105795</v>
+        <v>1.49716806945058</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.493826357830838</v>
@@ -28753,7 +28525,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.544669316937153</v>
+        <v>1.489518020180914</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.318425972304401</v>
@@ -28842,7 +28614,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.540617290346975</v>
+        <v>1.484444283702832</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.478863369578854</v>
@@ -28931,7 +28703,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.536419303290471</v>
+        <v>1.482814898516988</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.970685483912398</v>
@@ -29020,7 +28792,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.532669023833015</v>
+        <v>1.479693885676165</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.368185369578966</v>
@@ -29109,7 +28881,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.547247083591444</v>
+        <v>1.49343781015367</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.045392055564116</v>
@@ -29198,7 +28970,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.532266232977818</v>
+        <v>1.482552849896848</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.134641364970687</v>
@@ -29287,7 +29059,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.53903583083061</v>
+        <v>1.492026796934919</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.075534323039155</v>
@@ -29376,7 +29148,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.535313692276108</v>
+        <v>1.492792831537407</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.948302419184938</v>
@@ -29465,7 +29237,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.539498350071918</v>
+        <v>1.49098119682208</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.412047764322792</v>
@@ -29554,7 +29326,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.535465194197125</v>
+        <v>1.488223528219086</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.215882748224478</v>
@@ -29643,7 +29415,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.535096004484039</v>
+        <v>1.489911227634276</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.284116854752361</v>
@@ -29732,7 +29504,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.51789738953419</v>
+        <v>1.479700611506541</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.533032007823012</v>
@@ -29821,7 +29593,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.525711202985221</v>
+        <v>1.489513250739188</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.579689350247472</v>
@@ -29910,7 +29682,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.52787588239423</v>
+        <v>1.49001438845068</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.560763325042978</v>
@@ -29999,7 +29771,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.538669350095098</v>
+        <v>1.499539558309743</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.746477408147904</v>
@@ -30285,7 +30057,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.684661470865074</v>
+        <v>1.6570659677008</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.040302488092116</v>
@@ -30374,7 +30146,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.674722339392412</v>
+        <v>1.652335778720411</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.274796286912018</v>
@@ -30463,7 +30235,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.667472539387898</v>
+        <v>1.641109503950821</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.574464410365681</v>
@@ -30552,7 +30324,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665284535881635</v>
+        <v>1.631332618197759</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.201254020394187</v>
@@ -30641,7 +30413,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.65390354763001</v>
+        <v>1.620787018011631</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.30005502486488</v>
@@ -30730,7 +30502,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.642003932954042</v>
+        <v>1.601070969340247</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.34405062752415</v>
@@ -30819,7 +30591,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631669660889839</v>
+        <v>1.587732936771461</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.498186439752551</v>
@@ -30908,7 +30680,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622661931773672</v>
+        <v>1.577916925908575</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.258311801727091</v>
@@ -30997,7 +30769,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615046914468009</v>
+        <v>1.569404446639781</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.181496716532149</v>
@@ -31086,7 +30858,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.613184496320252</v>
+        <v>1.56964798732163</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.260948944940684</v>
@@ -31175,7 +30947,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610497325939819</v>
+        <v>1.564550420673719</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.400579089317103</v>
@@ -31264,7 +31036,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620830352723397</v>
+        <v>1.578600845925842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.206812509279538</v>
@@ -31353,7 +31125,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.617149963346785</v>
+        <v>1.577374341412477</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.15320856283341</v>
@@ -31442,7 +31214,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613175859630031</v>
+        <v>1.573862952937427</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.409672755992561</v>
@@ -31531,7 +31303,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.611773435914494</v>
+        <v>1.564393322836398</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.792111489250656</v>
@@ -31620,7 +31392,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.6103701354025</v>
+        <v>1.559387533477059</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.95454043749283</v>
@@ -31709,7 +31481,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608822434175221</v>
+        <v>1.555389673439025</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.557512569194629</v>
@@ -31798,7 +31570,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609600030802472</v>
+        <v>1.555197876686913</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.685573033737164</v>
@@ -31887,7 +31659,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.622862784158033</v>
+        <v>1.571129079144354</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.0631246496847</v>
@@ -31976,7 +31748,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.630784373617426</v>
+        <v>1.572155067636754</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.585065821943497</v>
@@ -32065,7 +31837,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.63893568001037</v>
+        <v>1.587495038956254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.455208244848079</v>
@@ -32154,7 +31926,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644471736774821</v>
+        <v>1.593724455334414</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.534761120610928</v>
@@ -32243,7 +32015,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.648398086337504</v>
+        <v>1.602035315793896</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.013058465061458</v>
@@ -32332,7 +32104,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654715914783886</v>
+        <v>1.605606088174762</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.834044157877535</v>
@@ -32421,7 +32193,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655743353099483</v>
+        <v>1.603863769366653</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.599572614754208</v>
@@ -32510,7 +32282,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.654396167234314</v>
+        <v>1.606014441783327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.777599896767819</v>
@@ -32599,7 +32371,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.655269813069258</v>
+        <v>1.607148043369042</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.338135816428104</v>
@@ -32688,7 +32460,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.648024745897427</v>
+        <v>1.597921726279564</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.643733091389312</v>
@@ -32777,7 +32549,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.653077709858443</v>
+        <v>1.607593168748609</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.296067028409286</v>
@@ -32866,7 +32638,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.65854695541024</v>
+        <v>1.616001411172383</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.551085014586845</v>
@@ -32955,7 +32727,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.641704690488812</v>
+        <v>1.601606617554501</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.277099785234403</v>
@@ -33044,7 +32816,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638341078118383</v>
+        <v>1.599496498428262</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.822424061415876</v>
@@ -33133,7 +32905,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63583470417353</v>
+        <v>1.599589205526334</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.582907617061202</v>
@@ -33222,7 +32994,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.62860735933232</v>
+        <v>1.584962822687473</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.453109138452259</v>
@@ -33311,7 +33083,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621813748143989</v>
+        <v>1.583254308337926</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.755630147770229</v>
@@ -33400,7 +33172,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.60419212036811</v>
+        <v>1.570412937460073</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.614990776149981</v>
@@ -33489,7 +33261,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596169794188771</v>
+        <v>1.5536390771546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.412222514821492</v>
@@ -33578,7 +33350,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598059283778298</v>
+        <v>1.555838629768775</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.659616696593381</v>
@@ -33667,7 +33439,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.59334689732684</v>
+        <v>1.555823539369528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.317846286833203</v>
@@ -33756,7 +33528,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.590300032711954</v>
+        <v>1.553925910548889</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.977141668438588</v>
@@ -33845,7 +33617,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597386386193477</v>
+        <v>1.552905775263592</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.121541472788173</v>
@@ -33934,7 +33706,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59884528386566</v>
+        <v>1.555059379142191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.55985949866207</v>
@@ -34023,7 +33795,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598348600899844</v>
+        <v>1.562275152090875</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.074320997974392</v>
@@ -34112,7 +33884,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.599147236519935</v>
+        <v>1.562867825800684</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.435629708782006</v>
@@ -34201,7 +33973,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600610074550358</v>
+        <v>1.566022166827455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.110222516007415</v>
@@ -34290,7 +34062,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608169104645256</v>
+        <v>1.569914780395172</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.373029219068222</v>
@@ -34379,7 +34151,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613366927791881</v>
+        <v>1.575843047130678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.398997816141375</v>
@@ -34468,7 +34240,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603885748837729</v>
+        <v>1.560926463049611</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.043198014063089</v>
@@ -34557,7 +34329,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608871985264052</v>
+        <v>1.572077033029291</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.235253020017014</v>
@@ -34646,7 +34418,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601991688816725</v>
+        <v>1.56249799276341</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.269407335049356</v>
@@ -34735,7 +34507,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.621282575659597</v>
+        <v>1.579737785284174</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.030453437441731</v>
@@ -34824,7 +34596,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.627692940142282</v>
+        <v>1.593484457841707</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.195449679485565</v>
@@ -34913,7 +34685,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621445685657275</v>
+        <v>1.586021956965245</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.076050579775487</v>
@@ -35002,7 +34774,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623547586569309</v>
+        <v>1.587983731086626</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.315891258854876</v>
@@ -35091,7 +34863,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.632169697775558</v>
+        <v>1.59100942791369</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.133074907394485</v>
@@ -35180,7 +34952,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.620368615578918</v>
+        <v>1.582433383714511</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.311134529834069</v>
@@ -35269,7 +35041,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.622104525375522</v>
+        <v>1.58494870468294</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.296571368057837</v>
@@ -35358,7 +35130,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620987085277833</v>
+        <v>1.583918254462473</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.840088197901412</v>
@@ -35447,7 +35219,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621661765385721</v>
+        <v>1.582225102069212</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.789876673410222</v>
@@ -35536,7 +35308,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.625306055210029</v>
+        <v>1.581061581096205</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.649628842744697</v>
@@ -35625,7 +35397,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.61115726351123</v>
+        <v>1.570765131835322</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.32857327359095</v>
@@ -35714,7 +35486,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.61205108020621</v>
+        <v>1.569188287772022</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.422221202034585</v>
@@ -35803,7 +35575,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.62161393130723</v>
+        <v>1.577371765347078</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.55083062681116</v>
@@ -35892,7 +35664,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.62724370316142</v>
+        <v>1.582221825976702</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.441413041950986</v>
@@ -35981,7 +35753,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.627311158409144</v>
+        <v>1.579399090690423</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.272341570127475</v>
@@ -36070,7 +35842,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.622730738604606</v>
+        <v>1.574256414816939</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.669354898576163</v>
@@ -36159,7 +35931,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.609301082191884</v>
+        <v>1.562516249098341</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.5468591411846</v>
@@ -36248,7 +36020,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.60572727550118</v>
+        <v>1.561374045773962</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.483199052159633</v>
@@ -36337,7 +36109,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.611249081140466</v>
+        <v>1.566106729508768</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.322487929449645</v>
@@ -36426,7 +36198,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.608315987096298</v>
+        <v>1.562663503147614</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.335417279114472</v>
@@ -36515,7 +36287,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.610308720056467</v>
+        <v>1.564952972392207</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.229060320278507</v>
@@ -36604,7 +36376,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.608660244448731</v>
+        <v>1.56218816277751</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.588910093465717</v>
@@ -36693,7 +36465,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.613511099578668</v>
+        <v>1.564132720040439</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.30406442165244</v>
@@ -36782,7 +36554,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.615463850216691</v>
+        <v>1.571698522235819</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.601515377245391</v>
@@ -36871,7 +36643,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.610448845086113</v>
+        <v>1.570953933808579</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.62910470700253</v>
@@ -36960,7 +36732,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.626500244356689</v>
+        <v>1.592795219555337</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.792628677858636</v>
@@ -37049,7 +36821,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.627164436364509</v>
+        <v>1.592625575276881</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.871325325095683</v>
@@ -37138,7 +36910,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.627220372772753</v>
+        <v>1.603891870334553</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.854270475150306</v>
@@ -37227,7 +36999,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.628074242120138</v>
+        <v>1.610168630552245</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.697881699189348</v>
@@ -37316,7 +37088,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.628662946733782</v>
+        <v>1.613643377788402</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.926615291791817</v>
@@ -37405,7 +37177,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.635014990656161</v>
+        <v>1.615393778942722</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.660580601479204</v>
@@ -37691,7 +37463,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.766081463381173</v>
+        <v>1.778273801810341</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.336658051032094</v>
@@ -37780,7 +37552,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.73993477928956</v>
+        <v>1.744817282797809</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.256512529284947</v>
@@ -37869,7 +37641,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.737601627048957</v>
+        <v>1.743360550072728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.166444681884081</v>
@@ -37958,7 +37730,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725554774647217</v>
+        <v>1.730592063225127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.279450434533015</v>
@@ -38047,7 +37819,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.711801752025863</v>
+        <v>1.719637468056411</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.214881338108135</v>
@@ -38136,7 +37908,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.6966339512957</v>
+        <v>1.701214500868894</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.829077627163742</v>
@@ -38225,7 +37997,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.676543687208298</v>
+        <v>1.679615571769808</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.862776206585642</v>
@@ -38314,7 +38086,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662310176922138</v>
+        <v>1.673442113735391</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.846822379226583</v>
@@ -38403,7 +38175,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.677584641407232</v>
+        <v>1.684692296276832</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.120928525544499</v>
@@ -38492,7 +38264,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.677292201773399</v>
+        <v>1.686969924450689</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.980600619622157</v>
@@ -38581,7 +38353,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.684555239779282</v>
+        <v>1.690754218477963</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.172276439470598</v>
@@ -38670,7 +38442,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.682367116123448</v>
+        <v>1.691028022821925</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.325134562178227</v>
@@ -38759,7 +38531,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.673789363461206</v>
+        <v>1.684835489919011</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.236688098934158</v>
@@ -38848,7 +38620,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.671980346858614</v>
+        <v>1.682277668764837</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.376006182959229</v>
@@ -38937,7 +38709,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.661987201194373</v>
+        <v>1.676668263533666</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.357831904147604</v>
@@ -39026,7 +38798,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.654629876540229</v>
+        <v>1.668473578261509</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.184960441177202</v>
@@ -39115,7 +38887,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678370776895768</v>
+        <v>1.697547193663162</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.04283164050458</v>
@@ -39204,7 +38976,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.679015715521447</v>
+        <v>1.695931298964027</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.520951119354036</v>
@@ -39293,7 +39065,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690122098471635</v>
+        <v>1.707712210604314</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.205579701892723</v>
@@ -39382,7 +39154,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.693176581452065</v>
+        <v>1.711254002637465</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.552175755020197</v>
@@ -39471,7 +39243,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.696386028187574</v>
+        <v>1.715838003868663</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.453885786517523</v>
@@ -39560,7 +39332,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.712384883287308</v>
+        <v>1.729229199449882</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.736755366417605</v>
@@ -39649,7 +39421,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.717484815039262</v>
+        <v>1.72995254111502</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.329762068775938</v>
@@ -39738,7 +39510,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716604315085032</v>
+        <v>1.727057604589667</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.61789987843715</v>
@@ -39827,7 +39599,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71079649811238</v>
+        <v>1.723625220406124</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.533485978580037</v>
@@ -39916,7 +39688,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714161020457773</v>
+        <v>1.728727739948776</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.407036958280361</v>
@@ -40005,7 +39777,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712728383073798</v>
+        <v>1.724567677018997</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.90358708183898</v>
@@ -40094,7 +39866,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.709308956623455</v>
+        <v>1.715224976231387</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.066678613767712</v>
@@ -40183,7 +39955,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68878588426331</v>
+        <v>1.704524027389128</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.031743291140103</v>
@@ -40272,7 +40044,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.68584737433217</v>
+        <v>1.695457202698969</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.834818263430451</v>
@@ -40361,7 +40133,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653342206968855</v>
+        <v>1.668475495780996</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.901118944519436</v>
@@ -40450,7 +40222,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643002360605504</v>
+        <v>1.654895768878768</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.088456205500726</v>
@@ -40539,7 +40311,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630414377095104</v>
+        <v>1.643197566339344</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.01835885983464</v>
@@ -40628,7 +40400,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633405066834113</v>
+        <v>1.64573060697271</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.912469482965587</v>
@@ -40717,7 +40489,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609006790404363</v>
+        <v>1.621670664488341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.924994102333244</v>
@@ -40806,7 +40578,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612641671051601</v>
+        <v>1.625867405889609</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.994990118532274</v>
@@ -40895,7 +40667,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596834754912789</v>
+        <v>1.610891558600588</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.7583693703509</v>
@@ -40984,7 +40756,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579952157203714</v>
+        <v>1.596573017958857</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.840083341838345</v>
@@ -41073,7 +40845,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.583623900305218</v>
+        <v>1.600878885798594</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.665441360716699</v>
@@ -41162,7 +40934,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581728978455185</v>
+        <v>1.598467737757689</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.908881422896823</v>
@@ -41251,7 +41023,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.564011916143662</v>
+        <v>1.580501973840962</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.871563731021964</v>
@@ -41340,7 +41112,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.559528095800635</v>
+        <v>1.577788109690296</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.900376338750435</v>
@@ -41429,7 +41201,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564714172031793</v>
+        <v>1.576628527091928</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.801473605278022</v>
@@ -41518,7 +41290,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.56508309182378</v>
+        <v>1.573389249976782</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.86942160025306</v>
@@ -41607,7 +41379,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.553860088646552</v>
+        <v>1.56653348202668</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.063794562896641</v>
@@ -41696,7 +41468,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568795820131287</v>
+        <v>1.57539985604898</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.084849180707934</v>
@@ -41785,7 +41557,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573812320952156</v>
+        <v>1.578386162546056</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.984489298859708</v>
@@ -41874,7 +41646,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566712090311482</v>
+        <v>1.571493890603971</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.142983623414677</v>
@@ -41963,7 +41735,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.561523982669552</v>
+        <v>1.56599993158528</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.706955347603523</v>
@@ -42052,7 +41824,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578647954373908</v>
+        <v>1.582333186613033</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.900985345602023</v>
@@ -42141,7 +41913,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.577188659220642</v>
+        <v>1.581774342773094</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.133064323872889</v>
@@ -42230,7 +42002,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.595558993433075</v>
+        <v>1.592079160304391</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.065091858642212</v>
@@ -42319,7 +42091,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.60543265464595</v>
+        <v>1.598778621506554</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.442754647158263</v>
@@ -42408,7 +42180,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.60535021651031</v>
+        <v>1.59576779463324</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.226334695367673</v>
@@ -42497,7 +42269,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.593139165165402</v>
+        <v>1.583386371406444</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.307648597321699</v>
@@ -42586,7 +42358,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589644767743112</v>
+        <v>1.578835498334965</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.15317650046553</v>
@@ -42675,7 +42447,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.58313293905135</v>
+        <v>1.567851629605143</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.280702729732483</v>
@@ -42764,7 +42536,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.584329423873133</v>
+        <v>1.573048846239038</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.227563925082451</v>
@@ -42853,7 +42625,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.587279035294905</v>
+        <v>1.573777694902202</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.39520997965041</v>
@@ -42942,7 +42714,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.591411206049953</v>
+        <v>1.578233216037369</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.463052256166647</v>
@@ -43031,7 +42803,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.591133755253295</v>
+        <v>1.580698248218093</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.308664507898024</v>
@@ -43120,7 +42892,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.58972485413342</v>
+        <v>1.582882853753141</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.436426505905884</v>
@@ -43209,7 +42981,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.583343100611902</v>
+        <v>1.57608911414451</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.232131432725584</v>
@@ -43298,7 +43070,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.574030170004843</v>
+        <v>1.572227860740079</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.300085950062018</v>
@@ -43387,7 +43159,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.567995042485083</v>
+        <v>1.566633886288813</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.990864998880294</v>
@@ -43476,7 +43248,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.563457523898551</v>
+        <v>1.561476583115879</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.41486934748889</v>
@@ -43565,7 +43337,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.562510022337548</v>
+        <v>1.565499734153028</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.960890697931597</v>
@@ -43654,7 +43426,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.566940108421357</v>
+        <v>1.573047039022618</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.393769451571134</v>
@@ -43743,7 +43515,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.575754266406012</v>
+        <v>1.583913617314267</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.432104226517137</v>
@@ -43832,7 +43604,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.582230694505552</v>
+        <v>1.595207020563303</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.543433252965366</v>
@@ -43921,7 +43693,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.585834227371974</v>
+        <v>1.594239693067399</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.293597561648414</v>
@@ -44010,7 +43782,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.590190777903541</v>
+        <v>1.597649462522739</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.005210998471607</v>
@@ -44099,7 +43871,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.603009601979913</v>
+        <v>1.606017347935683</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.248841074643436</v>
@@ -44188,7 +43960,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.60368767540427</v>
+        <v>1.605579351319157</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.356825750206858</v>
@@ -44277,7 +44049,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.605730631019678</v>
+        <v>1.608559228042778</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.253144695275247</v>
@@ -44366,7 +44138,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.595593155071411</v>
+        <v>1.601089878791656</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.388272939904614</v>
@@ -44455,7 +44227,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.607354274848037</v>
+        <v>1.612186559045927</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.883340163332995</v>
@@ -44544,7 +44316,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.606127790280557</v>
+        <v>1.622059269918978</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.433176309065273</v>
@@ -44633,7 +44405,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.605304324731777</v>
+        <v>1.622441230563921</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.549592320849997</v>
@@ -44722,7 +44494,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.61718052508196</v>
+        <v>1.625956047692775</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.55421279500581</v>
@@ -44811,7 +44583,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.607888846295041</v>
+        <v>1.615864472049272</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.652793551808453</v>
@@ -45097,7 +44869,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.242057731349115</v>
+        <v>1.229542956466393</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.447558067961171</v>
@@ -45186,7 +44958,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.222381257053814</v>
+        <v>1.203940034548721</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.344040078155154</v>
@@ -45275,7 +45047,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.220495561610874</v>
+        <v>1.202640833514876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.431356720494578</v>
@@ -45364,7 +45136,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.21928030806259</v>
+        <v>1.201403004537568</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.256002900909373</v>
@@ -45453,7 +45225,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.226098768493024</v>
+        <v>1.207752731587056</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.223628959902556</v>
@@ -45542,7 +45314,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.225738803249691</v>
+        <v>1.205888050476913</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.176768612802394</v>
@@ -45631,7 +45403,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.24903264951752</v>
+        <v>1.22605659577835</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.239703611786345</v>
@@ -45720,7 +45492,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.244851563227937</v>
+        <v>1.225577560256973</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.398146957955932</v>
@@ -45809,7 +45581,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.242698152046259</v>
+        <v>1.220926176566501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.175192976457301</v>
@@ -45898,7 +45670,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.237026444881514</v>
+        <v>1.219770446849344</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.337696451549762</v>
@@ -45987,7 +45759,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.243652429411716</v>
+        <v>1.221985404527135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.127309053759874</v>
@@ -46076,7 +45848,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.243219193979467</v>
+        <v>1.224251885868072</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.394633040926691</v>
@@ -46165,7 +45937,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.245023532635386</v>
+        <v>1.228811508921611</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.259787322050609</v>
@@ -46254,7 +46026,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.245521811083713</v>
+        <v>1.229083507608797</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.247439921679336</v>
@@ -46343,7 +46115,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.240274852591484</v>
+        <v>1.218137580383412</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.257292940826301</v>
@@ -46432,7 +46204,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.233933375154289</v>
+        <v>1.210385874059361</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.266772543557572</v>
@@ -46521,7 +46293,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.248525091086646</v>
+        <v>1.230544022800059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.120474657384979</v>
@@ -46610,7 +46382,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.246243423220869</v>
+        <v>1.233209795290868</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.156725082907939</v>
@@ -46699,7 +46471,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.25109869561844</v>
+        <v>1.239519865789604</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.273124789787195</v>
@@ -46788,7 +46560,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.259281920973387</v>
+        <v>1.246586606620418</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.056451280885448</v>
@@ -46877,7 +46649,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.272937463943535</v>
+        <v>1.268737055550816</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.195724933551634</v>
@@ -46966,7 +46738,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.269057251000925</v>
+        <v>1.266998068951594</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.241877134602256</v>
@@ -47055,7 +46827,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.272272824423551</v>
+        <v>1.268480599003055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.246285307546695</v>
@@ -47144,7 +46916,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.283247346624557</v>
+        <v>1.273740866304966</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.120022964863495</v>
@@ -47233,7 +47005,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.265223988863096</v>
+        <v>1.260956902705317</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.238669108174809</v>
@@ -47322,7 +47094,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.257930411801814</v>
+        <v>1.255900590765312</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.208628821634665</v>
@@ -47411,7 +47183,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.265262069769739</v>
+        <v>1.261568352520812</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.106625910462969</v>
@@ -47500,7 +47272,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.26006593408891</v>
+        <v>1.247473359510763</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.082111045956605</v>
@@ -47589,7 +47361,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.250076804985099</v>
+        <v>1.246747995342197</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.301217818976774</v>
@@ -47678,7 +47450,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.266471926925836</v>
+        <v>1.266893122874444</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.159086093381704</v>
@@ -47767,7 +47539,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.257646897543915</v>
+        <v>1.256335570991683</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.139497750272991</v>
@@ -47856,7 +47628,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.255709581867569</v>
+        <v>1.245131965583298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.235188101061028</v>
@@ -47945,7 +47717,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.242676079002529</v>
+        <v>1.237943239838888</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.280989947960983</v>
@@ -48034,7 +47806,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.24727005608828</v>
+        <v>1.242430135174961</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.227942587604517</v>
@@ -48123,7 +47895,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.243951426369549</v>
+        <v>1.239013827104634</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.229975018364811</v>
@@ -48212,7 +47984,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.231844499652911</v>
+        <v>1.225908403234283</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.248212603800385</v>
@@ -48301,7 +48073,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.229306695595202</v>
+        <v>1.221866386178391</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.373915159587839</v>
@@ -48390,7 +48162,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.231874966621279</v>
+        <v>1.223211158314847</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.176085307335086</v>
@@ -48479,7 +48251,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.225402741760915</v>
+        <v>1.216789537208923</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.422029030574802</v>
@@ -48568,7 +48340,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.224171696868655</v>
+        <v>1.214440364187017</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.140375685481889</v>
@@ -48657,7 +48429,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.220056660693436</v>
+        <v>1.21151107299848</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.351268343783326</v>
@@ -48746,7 +48518,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.217480429635092</v>
+        <v>1.208906629496495</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.377891534398743</v>
@@ -48835,7 +48607,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.227901365656072</v>
+        <v>1.213229177875458</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.381255940987567</v>
@@ -48924,7 +48696,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.236450411884216</v>
+        <v>1.223866715736066</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.309880063137034</v>
@@ -49013,7 +48785,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.230860768430359</v>
+        <v>1.211950074065616</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.109848622316291</v>
@@ -49102,7 +48874,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.228271427480174</v>
+        <v>1.211242110810601</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.203056762492449</v>
@@ -49191,7 +48963,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.233700748301883</v>
+        <v>1.218473527910122</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.385129019502822</v>
@@ -49280,7 +49052,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.231068775058627</v>
+        <v>1.214593594825506</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.399679507954422</v>
@@ -49369,7 +49141,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.218390529038116</v>
+        <v>1.199921396944703</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.465311567881785</v>
@@ -49458,7 +49230,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.216466596937778</v>
+        <v>1.197842894885119</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.432945709823057</v>
@@ -49547,7 +49319,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.220253078432172</v>
+        <v>1.200685519753516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.352311777183827</v>
@@ -49636,7 +49408,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.219690888715868</v>
+        <v>1.200792318017323</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.331707332475177</v>
@@ -49725,7 +49497,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.219265584425763</v>
+        <v>1.199076098723395</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.131024752573482</v>
@@ -49814,7 +49586,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.228596230881183</v>
+        <v>1.20875875140133</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.341678558278089</v>
@@ -49903,7 +49675,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.21911829726968</v>
+        <v>1.199428097193487</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.402274198562993</v>
@@ -49992,7 +49764,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.223396699301968</v>
+        <v>1.202002947154025</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.147394839405676</v>
@@ -50081,7 +49853,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.234839096645338</v>
+        <v>1.215159741225552</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.297846992698391</v>
@@ -50170,7 +49942,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.224858169374809</v>
+        <v>1.20807780354299</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.227314159205084</v>
@@ -50259,7 +50031,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.209591770098164</v>
+        <v>1.190390911964239</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.248652013952172</v>
@@ -50348,7 +50120,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.215056623657079</v>
+        <v>1.201336277400182</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.294763166710365</v>
@@ -50437,7 +50209,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.223227934126565</v>
+        <v>1.209212013921996</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.306696504586316</v>
@@ -50526,7 +50298,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.220259155935176</v>
+        <v>1.207272843841899</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.394152947042137</v>
@@ -50615,7 +50387,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.225477720417053</v>
+        <v>1.209373580265099</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.311518885087033</v>
@@ -50704,7 +50476,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.223685460668576</v>
+        <v>1.210523685420963</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.324893903517223</v>
@@ -50793,7 +50565,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.219029863054458</v>
+        <v>1.207962962263279</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.384739604255166</v>
@@ -50882,7 +50654,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.212619820584074</v>
+        <v>1.201968105031413</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.360842618217335</v>
@@ -50971,7 +50743,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.211775709651781</v>
+        <v>1.199065140525386</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.363694231534435</v>
@@ -51060,7 +50832,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.215565499012669</v>
+        <v>1.20292076374809</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.147055782541599</v>
@@ -51149,7 +50921,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.214930485874184</v>
+        <v>1.200901925067545</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.186423336879115</v>
@@ -51238,7 +51010,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.215790991059331</v>
+        <v>1.202622373210188</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.423146842835831</v>
@@ -51327,7 +51099,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.205265426281066</v>
+        <v>1.195223763117827</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.440735089819489</v>
@@ -51416,7 +51188,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.19642658306278</v>
+        <v>1.186753402325612</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.277971339961093</v>
@@ -51505,7 +51277,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.21145818877108</v>
+        <v>1.203280933280416</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.325225910033416</v>
@@ -51594,7 +51366,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.231265351987642</v>
+        <v>1.22156374717767</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.212298419908913</v>
@@ -51683,7 +51455,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.211849615911163</v>
+        <v>1.198490486477959</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.439512952420582</v>
@@ -51772,7 +51544,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.212771983108574</v>
+        <v>1.199822368814131</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.182181572855014</v>
@@ -51861,7 +51633,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.224825058768866</v>
+        <v>1.206021681058187</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.182578594747905</v>
@@ -51950,7 +51722,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.227068859004389</v>
+        <v>1.213211019162042</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.187272562157412</v>
@@ -52039,7 +51811,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.239645826058262</v>
+        <v>1.223832459919816</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.064035283327177</v>
@@ -52128,7 +51900,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.235826411757565</v>
+        <v>1.218444996420571</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.232200740220466</v>
@@ -52217,7 +51989,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.228601105415511</v>
+        <v>1.211245932024156</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.328126948226084</v>
